--- a/Ershov_Zubatka/R_calc_for_zubatka_feeding/Data/Зубатка_питание2001-2023.xlsx
+++ b/Ershov_Zubatka/R_calc_for_zubatka_feeding/Data/Зубатка_питание2001-2023.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9144"/>
+    <workbookView windowWidth="22188" windowHeight="9144" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="С пищей" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5036" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5036" uniqueCount="381">
   <si>
     <t>ID</t>
   </si>
@@ -983,6 +983,183 @@
   <si>
     <t>53.7</t>
   </si>
+  <si>
+    <t>11/07</t>
+  </si>
+  <si>
+    <t>12/07</t>
+  </si>
+  <si>
+    <t>13/07</t>
+  </si>
+  <si>
+    <t>14/07</t>
+  </si>
+  <si>
+    <t>16/07</t>
+  </si>
+  <si>
+    <t>21/07</t>
+  </si>
+  <si>
+    <t>24/07</t>
+  </si>
+  <si>
+    <t>26/07</t>
+  </si>
+  <si>
+    <t>31/07</t>
+  </si>
+  <si>
+    <t>10/08</t>
+  </si>
+  <si>
+    <t>12/08</t>
+  </si>
+  <si>
+    <t>17/07</t>
+  </si>
+  <si>
+    <t>18/07</t>
+  </si>
+  <si>
+    <t>01/08</t>
+  </si>
+  <si>
+    <t>22/07</t>
+  </si>
+  <si>
+    <t>02/08</t>
+  </si>
+  <si>
+    <t>03/08</t>
+  </si>
+  <si>
+    <t>04`/08</t>
+  </si>
+  <si>
+    <t>19/07</t>
+  </si>
+  <si>
+    <t>01/07</t>
+  </si>
+  <si>
+    <t>10/07</t>
+  </si>
+  <si>
+    <t>28/07</t>
+  </si>
+  <si>
+    <t>04/08</t>
+  </si>
+  <si>
+    <t>08/08</t>
+  </si>
+  <si>
+    <t>20/07</t>
+  </si>
+  <si>
+    <t>28/06</t>
+  </si>
+  <si>
+    <t>04/07</t>
+  </si>
+  <si>
+    <t>06/07</t>
+  </si>
+  <si>
+    <t>09/07</t>
+  </si>
+  <si>
+    <t>08/07</t>
+  </si>
+  <si>
+    <t>30/07</t>
+  </si>
+  <si>
+    <t>09/08</t>
+  </si>
+  <si>
+    <t>05/07</t>
+  </si>
+  <si>
+    <t>29/07</t>
+  </si>
+  <si>
+    <t>25/06</t>
+  </si>
+  <si>
+    <t>26/06</t>
+  </si>
+  <si>
+    <t>30/06</t>
+  </si>
+  <si>
+    <t>25/07</t>
+  </si>
+  <si>
+    <t>06/08</t>
+  </si>
+  <si>
+    <t>27/07</t>
+  </si>
+  <si>
+    <t>05/08</t>
+  </si>
+  <si>
+    <t>18/08</t>
+  </si>
+  <si>
+    <t>02/07</t>
+  </si>
+  <si>
+    <t>07/07</t>
+  </si>
+  <si>
+    <t>15/07</t>
+  </si>
+  <si>
+    <t>29/06</t>
+  </si>
+  <si>
+    <t>21/06</t>
+  </si>
+  <si>
+    <t>23/06</t>
+  </si>
+  <si>
+    <t>24/06</t>
+  </si>
+  <si>
+    <t>27/06</t>
+  </si>
+  <si>
+    <t>23/07</t>
+  </si>
+  <si>
+    <t>17/08</t>
+  </si>
+  <si>
+    <t>13/08</t>
+  </si>
+  <si>
+    <t>19/08</t>
+  </si>
+  <si>
+    <t>31`/07</t>
+  </si>
+  <si>
+    <t>07/08</t>
+  </si>
+  <si>
+    <t>03/07</t>
+  </si>
+  <si>
+    <t>15/08</t>
+  </si>
+  <si>
+    <t>11/08</t>
+  </si>
 </sst>
 </file>
 
@@ -1161,7 +1338,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1261,12 +1438,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1387,12 +1558,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1584,70 +1749,70 @@
     <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1997,7 +2162,7 @@
   <sheetPr/>
   <dimension ref="A1:AQ441"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -67507,8 +67672,8 @@
   <sheetPr/>
   <dimension ref="A1:G831"/>
   <sheetViews>
-    <sheetView topLeftCell="A803" workbookViewId="0">
-      <selection activeCell="B831" sqref="B831"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -67541,7 +67706,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>42</v>
+        <v>322</v>
       </c>
       <c r="C2" s="2">
         <v>2001</v>
@@ -67564,7 +67729,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>46</v>
+        <v>323</v>
       </c>
       <c r="C3" s="2">
         <v>2001</v>
@@ -67587,7 +67752,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>46</v>
+        <v>323</v>
       </c>
       <c r="C4" s="2">
         <v>2001</v>
@@ -67610,7 +67775,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>48</v>
+        <v>324</v>
       </c>
       <c r="C5" s="2">
         <v>2001</v>
@@ -67633,7 +67798,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>48</v>
+        <v>324</v>
       </c>
       <c r="C6" s="2">
         <v>2001</v>
@@ -67656,7 +67821,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>96</v>
+        <v>325</v>
       </c>
       <c r="C7" s="2">
         <v>2001</v>
@@ -67679,7 +67844,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>96</v>
+        <v>325</v>
       </c>
       <c r="C8" s="2">
         <v>2001</v>
@@ -67702,7 +67867,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>96</v>
+        <v>325</v>
       </c>
       <c r="C9" s="2">
         <v>2001</v>
@@ -67725,7 +67890,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>96</v>
+        <v>325</v>
       </c>
       <c r="C10" s="2">
         <v>2001</v>
@@ -67748,7 +67913,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>96</v>
+        <v>325</v>
       </c>
       <c r="C11" s="2">
         <v>2001</v>
@@ -67771,7 +67936,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>50</v>
+        <v>326</v>
       </c>
       <c r="C12" s="2">
         <v>2001</v>
@@ -67794,7 +67959,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>55</v>
+        <v>327</v>
       </c>
       <c r="C13" s="2">
         <v>2001</v>
@@ -67817,7 +67982,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>63</v>
+        <v>328</v>
       </c>
       <c r="C14" s="2">
         <v>2001</v>
@@ -67840,7 +68005,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>69</v>
+        <v>329</v>
       </c>
       <c r="C15" s="2">
         <v>2001</v>
@@ -67863,7 +68028,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>78</v>
+        <v>330</v>
       </c>
       <c r="C16" s="2">
         <v>2001</v>
@@ -67886,7 +68051,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>214</v>
+        <v>331</v>
       </c>
       <c r="C17" s="2">
         <v>2001</v>
@@ -67909,7 +68074,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>294</v>
+        <v>332</v>
       </c>
       <c r="C18" s="2">
         <v>2001</v>
@@ -67932,7 +68097,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>294</v>
+        <v>332</v>
       </c>
       <c r="C19" s="2">
         <v>2001</v>
@@ -67955,7 +68120,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>46</v>
+        <v>323</v>
       </c>
       <c r="C20" s="2">
         <v>2004</v>
@@ -67978,7 +68143,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>48</v>
+        <v>324</v>
       </c>
       <c r="C21" s="2">
         <v>2004</v>
@@ -68001,7 +68166,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>96</v>
+        <v>325</v>
       </c>
       <c r="C22" s="2">
         <v>2004</v>
@@ -68024,7 +68189,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>100</v>
+        <v>333</v>
       </c>
       <c r="C23" s="2">
         <v>2004</v>
@@ -68047,7 +68212,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>100</v>
+        <v>333</v>
       </c>
       <c r="C24" s="2">
         <v>2004</v>
@@ -68070,7 +68235,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>105</v>
+        <v>334</v>
       </c>
       <c r="C25" s="2">
         <v>2004</v>
@@ -68093,7 +68258,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>105</v>
+        <v>334</v>
       </c>
       <c r="C26" s="2">
         <v>2004</v>
@@ -68116,7 +68281,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>111</v>
+        <v>335</v>
       </c>
       <c r="C27" s="2">
         <v>2004</v>
@@ -68139,7 +68304,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>57</v>
+        <v>336</v>
       </c>
       <c r="C28" s="2">
         <v>2004</v>
@@ -68162,7 +68327,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>78</v>
+        <v>330</v>
       </c>
       <c r="C29" s="2">
         <v>2004</v>
@@ -68185,7 +68350,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>78</v>
+        <v>330</v>
       </c>
       <c r="C30" s="2">
         <v>2004</v>
@@ -68208,7 +68373,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>78</v>
+        <v>330</v>
       </c>
       <c r="C31" s="2">
         <v>2004</v>
@@ -68231,7 +68396,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>78</v>
+        <v>330</v>
       </c>
       <c r="C32" s="2">
         <v>2004</v>
@@ -68254,7 +68419,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>125</v>
+        <v>337</v>
       </c>
       <c r="C33" s="2">
         <v>2004</v>
@@ -68277,7 +68442,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>232</v>
+        <v>338</v>
       </c>
       <c r="C34" s="2">
         <v>2004</v>
@@ -68300,7 +68465,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>232</v>
+        <v>338</v>
       </c>
       <c r="C35" s="2">
         <v>2004</v>
@@ -68323,7 +68488,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>298</v>
+        <v>339</v>
       </c>
       <c r="C36" s="2">
         <v>2004</v>
@@ -68346,7 +68511,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>117</v>
+        <v>340</v>
       </c>
       <c r="C37" s="2">
         <v>2004</v>
@@ -68369,7 +68534,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>117</v>
+        <v>340</v>
       </c>
       <c r="C38" s="2">
         <v>2004</v>
@@ -68392,7 +68557,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>117</v>
+        <v>340</v>
       </c>
       <c r="C39" s="2">
         <v>2004</v>
@@ -68415,7 +68580,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>117</v>
+        <v>340</v>
       </c>
       <c r="C40" s="2">
         <v>2004</v>
@@ -68438,7 +68603,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>127</v>
+        <v>341</v>
       </c>
       <c r="C41" s="2">
         <v>2007</v>
@@ -68461,7 +68626,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>127</v>
+        <v>341</v>
       </c>
       <c r="C42" s="2">
         <v>2007</v>
@@ -68484,7 +68649,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>127</v>
+        <v>341</v>
       </c>
       <c r="C43" s="2">
         <v>2007</v>
@@ -68507,7 +68672,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>127</v>
+        <v>341</v>
       </c>
       <c r="C44" s="2">
         <v>2007</v>
@@ -68530,7 +68695,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>127</v>
+        <v>341</v>
       </c>
       <c r="C45" s="2">
         <v>2007</v>
@@ -68553,7 +68718,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>88</v>
+        <v>342</v>
       </c>
       <c r="C46" s="2">
         <v>2007</v>
@@ -68576,7 +68741,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>46</v>
+        <v>323</v>
       </c>
       <c r="C47" s="2">
         <v>2007</v>
@@ -68599,7 +68764,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>48</v>
+        <v>324</v>
       </c>
       <c r="C48" s="2">
         <v>2007</v>
@@ -68622,7 +68787,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>48</v>
+        <v>324</v>
       </c>
       <c r="C49" s="2">
         <v>2007</v>
@@ -68645,7 +68810,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>105</v>
+        <v>334</v>
       </c>
       <c r="C50" s="2">
         <v>2007</v>
@@ -68668,7 +68833,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>75</v>
+        <v>343</v>
       </c>
       <c r="C51" s="2">
         <v>2007</v>
@@ -68691,7 +68856,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>114</v>
+        <v>344</v>
       </c>
       <c r="C52" s="2">
         <v>2007</v>
@@ -68714,7 +68879,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>221</v>
+        <v>345</v>
       </c>
       <c r="C53" s="2">
         <v>2007</v>
@@ -68737,7 +68902,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>53</v>
+        <v>346</v>
       </c>
       <c r="C54" s="2">
         <v>2007</v>
@@ -68760,7 +68925,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>78</v>
+        <v>330</v>
       </c>
       <c r="C55" s="2">
         <v>2007</v>
@@ -68783,7 +68948,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>114</v>
+        <v>344</v>
       </c>
       <c r="C56" s="2">
         <v>2007</v>
@@ -68806,7 +68971,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>158</v>
+        <v>347</v>
       </c>
       <c r="C57" s="2">
         <v>2010</v>
@@ -68829,7 +68994,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>158</v>
+        <v>347</v>
       </c>
       <c r="C58" s="2">
         <v>2010</v>
@@ -68852,7 +69017,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>158</v>
+        <v>347</v>
       </c>
       <c r="C59" s="2">
         <v>2010</v>
@@ -68875,7 +69040,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>160</v>
+        <v>348</v>
       </c>
       <c r="C60" s="2">
         <v>2010</v>
@@ -68898,7 +69063,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>161</v>
+        <v>349</v>
       </c>
       <c r="C61" s="2">
         <v>2010</v>
@@ -68921,7 +69086,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>161</v>
+        <v>349</v>
       </c>
       <c r="C62" s="2">
         <v>2010</v>
@@ -68944,7 +69109,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>168</v>
+        <v>350</v>
       </c>
       <c r="C63" s="2">
         <v>2010</v>
@@ -68967,7 +69132,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>168</v>
+        <v>350</v>
       </c>
       <c r="C64" s="2">
         <v>2010</v>
@@ -68990,7 +69155,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>168</v>
+        <v>350</v>
       </c>
       <c r="C65" s="2">
         <v>2010</v>
@@ -69013,7 +69178,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>96</v>
+        <v>325</v>
       </c>
       <c r="C66" s="2">
         <v>2010</v>
@@ -69036,7 +69201,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>96</v>
+        <v>325</v>
       </c>
       <c r="C67" s="2">
         <v>2010</v>
@@ -69059,7 +69224,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>53</v>
+        <v>346</v>
       </c>
       <c r="C68" s="2">
         <v>2010</v>
@@ -69082,7 +69247,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>55</v>
+        <v>327</v>
       </c>
       <c r="C69" s="2">
         <v>2010</v>
@@ -69105,7 +69270,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>55</v>
+        <v>327</v>
       </c>
       <c r="C70" s="2">
         <v>2010</v>
@@ -69128,7 +69293,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>55</v>
+        <v>327</v>
       </c>
       <c r="C71" s="2">
         <v>2010</v>
@@ -69151,7 +69316,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>55</v>
+        <v>327</v>
       </c>
       <c r="C72" s="2">
         <v>2010</v>
@@ -69174,7 +69339,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>166</v>
+        <v>351</v>
       </c>
       <c r="C73" s="2">
         <v>2010</v>
@@ -69197,7 +69362,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>168</v>
+        <v>350</v>
       </c>
       <c r="C74" s="2">
         <v>2010</v>
@@ -69220,7 +69385,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>168</v>
+        <v>350</v>
       </c>
       <c r="C75" s="2">
         <v>2010</v>
@@ -69243,7 +69408,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>168</v>
+        <v>350</v>
       </c>
       <c r="C76" s="2">
         <v>2010</v>
@@ -69266,7 +69431,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>168</v>
+        <v>350</v>
       </c>
       <c r="C77" s="2">
         <v>2010</v>
@@ -69289,7 +69454,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>46</v>
+        <v>323</v>
       </c>
       <c r="C78" s="2">
         <v>2010</v>
@@ -69312,7 +69477,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>46</v>
+        <v>323</v>
       </c>
       <c r="C79" s="2">
         <v>2010</v>
@@ -69335,7 +69500,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>63</v>
+        <v>328</v>
       </c>
       <c r="C80" s="2">
         <v>2010</v>
@@ -69358,7 +69523,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>63</v>
+        <v>328</v>
       </c>
       <c r="C81" s="2">
         <v>2010</v>
@@ -69381,7 +69546,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>63</v>
+        <v>328</v>
       </c>
       <c r="C82" s="2">
         <v>2010</v>
@@ -69404,7 +69569,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>123</v>
+        <v>352</v>
       </c>
       <c r="C83" s="2">
         <v>2010</v>
@@ -69427,7 +69592,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>114</v>
+        <v>344</v>
       </c>
       <c r="C84" s="2">
         <v>2010</v>
@@ -69450,7 +69615,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>114</v>
+        <v>344</v>
       </c>
       <c r="C85" s="2">
         <v>2010</v>
@@ -69473,7 +69638,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>179</v>
+        <v>353</v>
       </c>
       <c r="C86" s="2">
         <v>2010</v>
@@ -69496,7 +69661,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>179</v>
+        <v>353</v>
       </c>
       <c r="C87" s="2">
         <v>2010</v>
@@ -69519,7 +69684,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>160</v>
+        <v>348</v>
       </c>
       <c r="C88" s="2">
         <v>2012</v>
@@ -69542,7 +69707,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>160</v>
+        <v>348</v>
       </c>
       <c r="C89" s="2">
         <v>2012</v>
@@ -69565,7 +69730,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>185</v>
+        <v>354</v>
       </c>
       <c r="C90" s="2">
         <v>2012</v>
@@ -69588,7 +69753,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>185</v>
+        <v>354</v>
       </c>
       <c r="C91" s="2">
         <v>2012</v>
@@ -69611,7 +69776,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>185</v>
+        <v>354</v>
       </c>
       <c r="C92" s="2">
         <v>2012</v>
@@ -69634,7 +69799,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>166</v>
+        <v>351</v>
       </c>
       <c r="C93" s="2">
         <v>2012</v>
@@ -69657,7 +69822,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>166</v>
+        <v>351</v>
       </c>
       <c r="C94" s="2">
         <v>2012</v>
@@ -69680,7 +69845,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>166</v>
+        <v>351</v>
       </c>
       <c r="C95" s="2">
         <v>2012</v>
@@ -69703,7 +69868,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>166</v>
+        <v>351</v>
       </c>
       <c r="C96" s="2">
         <v>2012</v>
@@ -69726,7 +69891,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>168</v>
+        <v>350</v>
       </c>
       <c r="C97" s="2">
         <v>2012</v>
@@ -69749,7 +69914,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>168</v>
+        <v>350</v>
       </c>
       <c r="C98" s="2">
         <v>2012</v>
@@ -69772,7 +69937,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>168</v>
+        <v>350</v>
       </c>
       <c r="C99" s="2">
         <v>2012</v>
@@ -69795,7 +69960,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>168</v>
+        <v>350</v>
       </c>
       <c r="C100" s="2">
         <v>2012</v>
@@ -69818,7 +69983,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>46</v>
+        <v>323</v>
       </c>
       <c r="C101" s="2">
         <v>2012</v>
@@ -69841,7 +70006,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>46</v>
+        <v>323</v>
       </c>
       <c r="C102" s="2">
         <v>2012</v>
@@ -69864,7 +70029,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>96</v>
+        <v>325</v>
       </c>
       <c r="C103" s="2">
         <v>2012</v>
@@ -69887,7 +70052,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>96</v>
+        <v>325</v>
       </c>
       <c r="C104" s="2">
         <v>2012</v>
@@ -69910,7 +70075,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>96</v>
+        <v>325</v>
       </c>
       <c r="C105" s="2">
         <v>2012</v>
@@ -69933,7 +70098,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>96</v>
+        <v>325</v>
       </c>
       <c r="C106" s="2">
         <v>2012</v>
@@ -69956,7 +70121,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>96</v>
+        <v>325</v>
       </c>
       <c r="C107" s="2">
         <v>2012</v>
@@ -69979,7 +70144,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>96</v>
+        <v>325</v>
       </c>
       <c r="C108" s="2">
         <v>2012</v>
@@ -70002,7 +70167,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>96</v>
+        <v>325</v>
       </c>
       <c r="C109" s="2">
         <v>2012</v>
@@ -70025,7 +70190,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>50</v>
+        <v>326</v>
       </c>
       <c r="C110" s="2">
         <v>2012</v>
@@ -70048,7 +70213,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>50</v>
+        <v>326</v>
       </c>
       <c r="C111" s="2">
         <v>2012</v>
@@ -70071,7 +70236,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>50</v>
+        <v>326</v>
       </c>
       <c r="C112" s="2">
         <v>2012</v>
@@ -70094,7 +70259,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>50</v>
+        <v>326</v>
       </c>
       <c r="C113" s="2">
         <v>2012</v>
@@ -70117,7 +70282,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>50</v>
+        <v>326</v>
       </c>
       <c r="C114" s="2">
         <v>2012</v>
@@ -70140,7 +70305,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>50</v>
+        <v>326</v>
       </c>
       <c r="C115" s="2">
         <v>2012</v>
@@ -70163,7 +70328,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>50</v>
+        <v>326</v>
       </c>
       <c r="C116" s="2">
         <v>2012</v>
@@ -70186,7 +70351,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>50</v>
+        <v>326</v>
       </c>
       <c r="C117" s="2">
         <v>2012</v>
@@ -70209,7 +70374,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>50</v>
+        <v>326</v>
       </c>
       <c r="C118" s="2">
         <v>2012</v>
@@ -70232,7 +70397,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>63</v>
+        <v>328</v>
       </c>
       <c r="C119" s="2">
         <v>2012</v>
@@ -70255,7 +70420,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>63</v>
+        <v>328</v>
       </c>
       <c r="C120" s="2">
         <v>2012</v>
@@ -70278,7 +70443,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>63</v>
+        <v>328</v>
       </c>
       <c r="C121" s="2">
         <v>2012</v>
@@ -70301,7 +70466,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>69</v>
+        <v>329</v>
       </c>
       <c r="C122" s="2">
         <v>2012</v>
@@ -70324,7 +70489,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>69</v>
+        <v>329</v>
       </c>
       <c r="C123" s="2">
         <v>2012</v>
@@ -70347,7 +70512,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>140</v>
+        <v>355</v>
       </c>
       <c r="C124" s="2">
         <v>2012</v>
@@ -70370,7 +70535,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>140</v>
+        <v>355</v>
       </c>
       <c r="C125" s="2">
         <v>2012</v>
@@ -70393,7 +70558,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>111</v>
+        <v>335</v>
       </c>
       <c r="C126" s="2">
         <v>2012</v>
@@ -70416,7 +70581,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>114</v>
+        <v>344</v>
       </c>
       <c r="C127" s="2">
         <v>2012</v>
@@ -70439,7 +70604,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>200</v>
+        <v>356</v>
       </c>
       <c r="C128" s="2">
         <v>2013</v>
@@ -70462,7 +70627,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>200</v>
+        <v>356</v>
       </c>
       <c r="C129" s="2">
         <v>2013</v>
@@ -70485,7 +70650,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>200</v>
+        <v>356</v>
       </c>
       <c r="C130" s="2">
         <v>2013</v>
@@ -70508,7 +70673,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>200</v>
+        <v>356</v>
       </c>
       <c r="C131" s="2">
         <v>2013</v>
@@ -70531,7 +70696,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>200</v>
+        <v>356</v>
       </c>
       <c r="C132" s="2">
         <v>2013</v>
@@ -70554,7 +70719,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>251</v>
+        <v>357</v>
       </c>
       <c r="C133" s="2">
         <v>2013</v>
@@ -70577,7 +70742,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>202</v>
+        <v>358</v>
       </c>
       <c r="C134" s="2">
         <v>2013</v>
@@ -70600,7 +70765,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>202</v>
+        <v>358</v>
       </c>
       <c r="C135" s="2">
         <v>2013</v>
@@ -70623,7 +70788,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>202</v>
+        <v>358</v>
       </c>
       <c r="C136" s="2">
         <v>2013</v>
@@ -70646,7 +70811,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>202</v>
+        <v>358</v>
       </c>
       <c r="C137" s="2">
         <v>2013</v>
@@ -70669,7 +70834,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>202</v>
+        <v>358</v>
       </c>
       <c r="C138" s="2">
         <v>2013</v>
@@ -70692,7 +70857,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>202</v>
+        <v>358</v>
       </c>
       <c r="C139" s="2">
         <v>2013</v>
@@ -70715,7 +70880,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>202</v>
+        <v>358</v>
       </c>
       <c r="C140" s="2">
         <v>2013</v>
@@ -70738,7 +70903,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>202</v>
+        <v>358</v>
       </c>
       <c r="C141" s="2">
         <v>2013</v>
@@ -70761,7 +70926,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>202</v>
+        <v>358</v>
       </c>
       <c r="C142" s="2">
         <v>2013</v>
@@ -70784,7 +70949,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>160</v>
+        <v>348</v>
       </c>
       <c r="C143" s="2">
         <v>2013</v>
@@ -70807,7 +70972,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>160</v>
+        <v>348</v>
       </c>
       <c r="C144" s="2">
         <v>2013</v>
@@ -70830,7 +70995,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>185</v>
+        <v>354</v>
       </c>
       <c r="C145" s="2">
         <v>2013</v>
@@ -70853,7 +71018,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>185</v>
+        <v>354</v>
       </c>
       <c r="C146" s="2">
         <v>2013</v>
@@ -70876,7 +71041,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>168</v>
+        <v>350</v>
       </c>
       <c r="C147" s="2">
         <v>2013</v>
@@ -70899,7 +71064,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>168</v>
+        <v>350</v>
       </c>
       <c r="C148" s="2">
         <v>2013</v>
@@ -70922,7 +71087,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>168</v>
+        <v>350</v>
       </c>
       <c r="C149" s="2">
         <v>2013</v>
@@ -70945,7 +71110,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>168</v>
+        <v>350</v>
       </c>
       <c r="C150" s="2">
         <v>2013</v>
@@ -70968,7 +71133,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>168</v>
+        <v>350</v>
       </c>
       <c r="C151" s="2">
         <v>2013</v>
@@ -70991,7 +71156,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>168</v>
+        <v>350</v>
       </c>
       <c r="C152" s="2">
         <v>2013</v>
@@ -71014,7 +71179,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>168</v>
+        <v>350</v>
       </c>
       <c r="C153" s="2">
         <v>2013</v>
@@ -71037,7 +71202,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>168</v>
+        <v>350</v>
       </c>
       <c r="C154" s="2">
         <v>2013</v>
@@ -71060,7 +71225,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>168</v>
+        <v>350</v>
       </c>
       <c r="C155" s="2">
         <v>2013</v>
@@ -71083,7 +71248,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>46</v>
+        <v>323</v>
       </c>
       <c r="C156" s="2">
         <v>2013</v>
@@ -71106,7 +71271,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>46</v>
+        <v>323</v>
       </c>
       <c r="C157" s="2">
         <v>2013</v>
@@ -71129,7 +71294,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>46</v>
+        <v>323</v>
       </c>
       <c r="C158" s="2">
         <v>2013</v>
@@ -71152,7 +71317,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>48</v>
+        <v>324</v>
       </c>
       <c r="C159" s="2">
         <v>2013</v>
@@ -71175,7 +71340,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>48</v>
+        <v>324</v>
       </c>
       <c r="C160" s="2">
         <v>2013</v>
@@ -71198,7 +71363,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>48</v>
+        <v>324</v>
       </c>
       <c r="C161" s="2">
         <v>2013</v>
@@ -71221,7 +71386,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>55</v>
+        <v>327</v>
       </c>
       <c r="C162" s="2">
         <v>2013</v>
@@ -71244,7 +71409,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>55</v>
+        <v>327</v>
       </c>
       <c r="C163" s="2">
         <v>2013</v>
@@ -71267,7 +71432,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>55</v>
+        <v>327</v>
       </c>
       <c r="C164" s="2">
         <v>2013</v>
@@ -71290,7 +71455,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>67</v>
+        <v>359</v>
       </c>
       <c r="C165" s="2">
         <v>2013</v>
@@ -71313,7 +71478,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>67</v>
+        <v>359</v>
       </c>
       <c r="C166" s="2">
         <v>2013</v>
@@ -71336,7 +71501,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>67</v>
+        <v>359</v>
       </c>
       <c r="C167" s="2">
         <v>2013</v>
@@ -71359,7 +71524,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>67</v>
+        <v>359</v>
       </c>
       <c r="C168" s="2">
         <v>2013</v>
@@ -71382,7 +71547,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>67</v>
+        <v>359</v>
       </c>
       <c r="C169" s="2">
         <v>2013</v>
@@ -71405,7 +71570,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>67</v>
+        <v>359</v>
       </c>
       <c r="C170" s="2">
         <v>2013</v>
@@ -71428,7 +71593,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>67</v>
+        <v>359</v>
       </c>
       <c r="C171" s="2">
         <v>2013</v>
@@ -71451,7 +71616,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>67</v>
+        <v>359</v>
       </c>
       <c r="C172" s="2">
         <v>2013</v>
@@ -71474,7 +71639,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>67</v>
+        <v>359</v>
       </c>
       <c r="C173" s="2">
         <v>2013</v>
@@ -71497,7 +71662,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>67</v>
+        <v>359</v>
       </c>
       <c r="C174" s="2">
         <v>2013</v>
@@ -71520,7 +71685,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>75</v>
+        <v>343</v>
       </c>
       <c r="C175" s="2">
         <v>2013</v>
@@ -71543,7 +71708,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>145</v>
+        <v>360</v>
       </c>
       <c r="C176" s="2">
         <v>2013</v>
@@ -71566,7 +71731,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>145</v>
+        <v>360</v>
       </c>
       <c r="C177" s="2">
         <v>2013</v>
@@ -71589,7 +71754,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>145</v>
+        <v>360</v>
       </c>
       <c r="C178" s="2">
         <v>2013</v>
@@ -71612,7 +71777,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>214</v>
+        <v>331</v>
       </c>
       <c r="C179" s="2">
         <v>2013</v>
@@ -71635,7 +71800,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>214</v>
+        <v>331</v>
       </c>
       <c r="C180" s="2">
         <v>2013</v>
@@ -71658,7 +71823,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>214</v>
+        <v>331</v>
       </c>
       <c r="C181" s="2">
         <v>2013</v>
@@ -71681,7 +71846,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>214</v>
+        <v>331</v>
       </c>
       <c r="C182" s="2">
         <v>2013</v>
@@ -71704,7 +71869,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>294</v>
+        <v>332</v>
       </c>
       <c r="C183" s="2">
         <v>2013</v>
@@ -71727,7 +71892,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>294</v>
+        <v>332</v>
       </c>
       <c r="C184" s="2">
         <v>2013</v>
@@ -71750,7 +71915,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>294</v>
+        <v>332</v>
       </c>
       <c r="C185" s="2">
         <v>2013</v>
@@ -71773,7 +71938,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>294</v>
+        <v>332</v>
       </c>
       <c r="C186" s="2">
         <v>2013</v>
@@ -71796,7 +71961,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>294</v>
+        <v>332</v>
       </c>
       <c r="C187" s="2">
         <v>2013</v>
@@ -71819,7 +71984,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>161</v>
+        <v>349</v>
       </c>
       <c r="C188" s="2">
         <v>2014</v>
@@ -71842,7 +72007,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>161</v>
+        <v>349</v>
       </c>
       <c r="C189" s="2">
         <v>2014</v>
@@ -71865,7 +72030,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>161</v>
+        <v>349</v>
       </c>
       <c r="C190" s="2">
         <v>2014</v>
@@ -71888,7 +72053,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>161</v>
+        <v>349</v>
       </c>
       <c r="C191" s="2">
         <v>2014</v>
@@ -71911,7 +72076,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>161</v>
+        <v>349</v>
       </c>
       <c r="C192" s="2">
         <v>2014</v>
@@ -71934,7 +72099,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>161</v>
+        <v>349</v>
       </c>
       <c r="C193" s="2">
         <v>2014</v>
@@ -71957,7 +72122,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>166</v>
+        <v>351</v>
       </c>
       <c r="C194" s="2">
         <v>2014</v>
@@ -71980,7 +72145,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>166</v>
+        <v>351</v>
       </c>
       <c r="C195" s="2">
         <v>2014</v>
@@ -72003,7 +72168,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>168</v>
+        <v>350</v>
       </c>
       <c r="C196" s="2">
         <v>2014</v>
@@ -72026,7 +72191,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>168</v>
+        <v>350</v>
       </c>
       <c r="C197" s="2">
         <v>2014</v>
@@ -72049,7 +72214,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>168</v>
+        <v>350</v>
       </c>
       <c r="C198" s="2">
         <v>2014</v>
@@ -72072,7 +72237,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>42</v>
+        <v>322</v>
       </c>
       <c r="C199" s="2">
         <v>2014</v>
@@ -72095,7 +72260,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>42</v>
+        <v>322</v>
       </c>
       <c r="C200" s="2">
         <v>2014</v>
@@ -72118,7 +72283,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>42</v>
+        <v>322</v>
       </c>
       <c r="C201" s="2">
         <v>2014</v>
@@ -72141,7 +72306,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>72</v>
+        <v>361</v>
       </c>
       <c r="C202" s="2">
         <v>2014</v>
@@ -72164,7 +72329,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>72</v>
+        <v>361</v>
       </c>
       <c r="C203" s="2">
         <v>2014</v>
@@ -72187,7 +72352,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>72</v>
+        <v>361</v>
       </c>
       <c r="C204" s="2">
         <v>2014</v>
@@ -72210,7 +72375,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>72</v>
+        <v>361</v>
       </c>
       <c r="C205" s="2">
         <v>2014</v>
@@ -72233,7 +72398,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>72</v>
+        <v>361</v>
       </c>
       <c r="C206" s="2">
         <v>2014</v>
@@ -72256,7 +72421,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>72</v>
+        <v>361</v>
       </c>
       <c r="C207" s="2">
         <v>2014</v>
@@ -72279,7 +72444,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>72</v>
+        <v>361</v>
       </c>
       <c r="C208" s="2">
         <v>2014</v>
@@ -72302,7 +72467,7 @@
         <v>208</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>75</v>
+        <v>343</v>
       </c>
       <c r="C209" s="2">
         <v>2014</v>
@@ -72325,7 +72490,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>75</v>
+        <v>343</v>
       </c>
       <c r="C210" s="2">
         <v>2014</v>
@@ -72348,7 +72513,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>75</v>
+        <v>343</v>
       </c>
       <c r="C211" s="2">
         <v>2014</v>
@@ -72371,7 +72536,7 @@
         <v>211</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>123</v>
+        <v>352</v>
       </c>
       <c r="C212" s="2">
         <v>2014</v>
@@ -72394,7 +72559,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>123</v>
+        <v>352</v>
       </c>
       <c r="C213" s="2">
         <v>2014</v>
@@ -72417,7 +72582,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>123</v>
+        <v>352</v>
       </c>
       <c r="C214" s="2">
         <v>2014</v>
@@ -72440,7 +72605,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>123</v>
+        <v>352</v>
       </c>
       <c r="C215" s="2">
         <v>2014</v>
@@ -72463,7 +72628,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>123</v>
+        <v>352</v>
       </c>
       <c r="C216" s="2">
         <v>2014</v>
@@ -72486,7 +72651,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>123</v>
+        <v>352</v>
       </c>
       <c r="C217" s="2">
         <v>2014</v>
@@ -72509,7 +72674,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>232</v>
+        <v>338</v>
       </c>
       <c r="C218" s="2">
         <v>2014</v>
@@ -72532,7 +72697,7 @@
         <v>218</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>232</v>
+        <v>338</v>
       </c>
       <c r="C219" s="2">
         <v>2014</v>
@@ -72555,7 +72720,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>142</v>
+        <v>362</v>
       </c>
       <c r="C220" s="2">
         <v>2014</v>
@@ -72578,7 +72743,7 @@
         <v>220</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>142</v>
+        <v>362</v>
       </c>
       <c r="C221" s="2">
         <v>2014</v>
@@ -72601,7 +72766,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>142</v>
+        <v>362</v>
       </c>
       <c r="C222" s="2">
         <v>2014</v>
@@ -72624,7 +72789,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>142</v>
+        <v>362</v>
       </c>
       <c r="C223" s="2">
         <v>2014</v>
@@ -72647,7 +72812,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>142</v>
+        <v>362</v>
       </c>
       <c r="C224" s="2">
         <v>2014</v>
@@ -72670,7 +72835,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>179</v>
+        <v>353</v>
       </c>
       <c r="C225" s="2">
         <v>2014</v>
@@ -72693,7 +72858,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>179</v>
+        <v>353</v>
       </c>
       <c r="C226" s="2">
         <v>2014</v>
@@ -72716,7 +72881,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>294</v>
+        <v>332</v>
       </c>
       <c r="C227" s="2">
         <v>2014</v>
@@ -72739,7 +72904,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>294</v>
+        <v>332</v>
       </c>
       <c r="C228" s="2">
         <v>2014</v>
@@ -72762,7 +72927,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>294</v>
+        <v>332</v>
       </c>
       <c r="C229" s="2">
         <v>2014</v>
@@ -72785,7 +72950,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>294</v>
+        <v>332</v>
       </c>
       <c r="C230" s="2">
         <v>2014</v>
@@ -72808,7 +72973,7 @@
         <v>230</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>234</v>
+        <v>363</v>
       </c>
       <c r="C231" s="2">
         <v>2014</v>
@@ -72831,7 +72996,7 @@
         <v>231</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>202</v>
+        <v>358</v>
       </c>
       <c r="C232" s="2">
         <v>2015</v>
@@ -72854,7 +73019,7 @@
         <v>232</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>202</v>
+        <v>358</v>
       </c>
       <c r="C233" s="2">
         <v>2015</v>
@@ -72877,7 +73042,7 @@
         <v>233</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>127</v>
+        <v>341</v>
       </c>
       <c r="C234" s="2">
         <v>2015</v>
@@ -72900,7 +73065,7 @@
         <v>234</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>127</v>
+        <v>341</v>
       </c>
       <c r="C235" s="2">
         <v>2015</v>
@@ -72923,7 +73088,7 @@
         <v>235</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>127</v>
+        <v>341</v>
       </c>
       <c r="C236" s="2">
         <v>2015</v>
@@ -72946,7 +73111,7 @@
         <v>236</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>236</v>
+        <v>364</v>
       </c>
       <c r="C237" s="2">
         <v>2015</v>
@@ -72969,7 +73134,7 @@
         <v>237</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>236</v>
+        <v>364</v>
       </c>
       <c r="C238" s="2">
         <v>2015</v>
@@ -72992,7 +73157,7 @@
         <v>238</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>236</v>
+        <v>364</v>
       </c>
       <c r="C239" s="2">
         <v>2015</v>
@@ -73015,7 +73180,7 @@
         <v>239</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>163</v>
+        <v>365</v>
       </c>
       <c r="C240" s="2">
         <v>2015</v>
@@ -73038,7 +73203,7 @@
         <v>240</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>46</v>
+        <v>323</v>
       </c>
       <c r="C241" s="2">
         <v>2015</v>
@@ -73061,7 +73226,7 @@
         <v>241</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>46</v>
+        <v>323</v>
       </c>
       <c r="C242" s="2">
         <v>2015</v>
@@ -73084,7 +73249,7 @@
         <v>242</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>46</v>
+        <v>323</v>
       </c>
       <c r="C243" s="2">
         <v>2015</v>
@@ -73107,7 +73272,7 @@
         <v>243</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>98</v>
+        <v>366</v>
       </c>
       <c r="C244" s="2">
         <v>2015</v>
@@ -73130,7 +73295,7 @@
         <v>244</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>98</v>
+        <v>366</v>
       </c>
       <c r="C245" s="2">
         <v>2015</v>
@@ -73153,7 +73318,7 @@
         <v>245</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>69</v>
+        <v>329</v>
       </c>
       <c r="C246" s="2">
         <v>2015</v>
@@ -73176,7 +73341,7 @@
         <v>246</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>69</v>
+        <v>329</v>
       </c>
       <c r="C247" s="2">
         <v>2015</v>
@@ -73199,7 +73364,7 @@
         <v>247</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>140</v>
+        <v>355</v>
       </c>
       <c r="C248" s="2">
         <v>2015</v>
@@ -73222,7 +73387,7 @@
         <v>248</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>114</v>
+        <v>344</v>
       </c>
       <c r="C249" s="2">
         <v>2015</v>
@@ -73245,7 +73410,7 @@
         <v>249</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>114</v>
+        <v>344</v>
       </c>
       <c r="C250" s="2">
         <v>2015</v>
@@ -73268,7 +73433,7 @@
         <v>250</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>114</v>
+        <v>344</v>
       </c>
       <c r="C251" s="2">
         <v>2015</v>
@@ -73291,7 +73456,7 @@
         <v>251</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>114</v>
+        <v>344</v>
       </c>
       <c r="C252" s="2">
         <v>2015</v>
@@ -73314,7 +73479,7 @@
         <v>252</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>114</v>
+        <v>344</v>
       </c>
       <c r="C253" s="2">
         <v>2015</v>
@@ -73337,7 +73502,7 @@
         <v>253</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>253</v>
+        <v>367</v>
       </c>
       <c r="C254" s="2">
         <v>2017</v>
@@ -73360,7 +73525,7 @@
         <v>254</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>127</v>
+        <v>341</v>
       </c>
       <c r="C255" s="2">
         <v>2017</v>
@@ -73383,7 +73548,7 @@
         <v>255</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>50</v>
+        <v>326</v>
       </c>
       <c r="C256" s="2">
         <v>2017</v>
@@ -73406,7 +73571,7 @@
         <v>256</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>72</v>
+        <v>361</v>
       </c>
       <c r="C257" s="2">
         <v>2017</v>
@@ -73429,7 +73594,7 @@
         <v>257</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>72</v>
+        <v>361</v>
       </c>
       <c r="C258" s="2">
         <v>2017</v>
@@ -73452,7 +73617,7 @@
         <v>258</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>72</v>
+        <v>361</v>
       </c>
       <c r="C259" s="2">
         <v>2017</v>
@@ -73475,7 +73640,7 @@
         <v>259</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>75</v>
+        <v>343</v>
       </c>
       <c r="C260" s="2">
         <v>2017</v>
@@ -73498,7 +73663,7 @@
         <v>260</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>75</v>
+        <v>343</v>
       </c>
       <c r="C261" s="2">
         <v>2017</v>
@@ -73521,7 +73686,7 @@
         <v>261</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>75</v>
+        <v>343</v>
       </c>
       <c r="C262" s="2">
         <v>2017</v>
@@ -73544,7 +73709,7 @@
         <v>262</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>75</v>
+        <v>343</v>
       </c>
       <c r="C263" s="2">
         <v>2017</v>
@@ -73567,7 +73732,7 @@
         <v>263</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>75</v>
+        <v>343</v>
       </c>
       <c r="C264" s="2">
         <v>2017</v>
@@ -73590,7 +73755,7 @@
         <v>264</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>123</v>
+        <v>352</v>
       </c>
       <c r="C265" s="2">
         <v>2017</v>
@@ -73613,7 +73778,7 @@
         <v>265</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>125</v>
+        <v>337</v>
       </c>
       <c r="C266" s="2">
         <v>2017</v>
@@ -73636,7 +73801,7 @@
         <v>266</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>179</v>
+        <v>353</v>
       </c>
       <c r="C267" s="2">
         <v>2017</v>
@@ -73659,7 +73824,7 @@
         <v>267</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>179</v>
+        <v>353</v>
       </c>
       <c r="C268" s="2">
         <v>2017</v>
@@ -73682,7 +73847,7 @@
         <v>268</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>179</v>
+        <v>353</v>
       </c>
       <c r="C269" s="2">
         <v>2017</v>
@@ -73705,7 +73870,7 @@
         <v>269</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>236</v>
+        <v>364</v>
       </c>
       <c r="C270" s="2">
         <v>2018</v>
@@ -73728,7 +73893,7 @@
         <v>270</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>236</v>
+        <v>364</v>
       </c>
       <c r="C271" s="2">
         <v>2018</v>
@@ -73751,7 +73916,7 @@
         <v>271</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>236</v>
+        <v>364</v>
       </c>
       <c r="C272" s="2">
         <v>2018</v>
@@ -73774,7 +73939,7 @@
         <v>272</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>236</v>
+        <v>364</v>
       </c>
       <c r="C273" s="2">
         <v>2018</v>
@@ -73797,7 +73962,7 @@
         <v>273</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>236</v>
+        <v>364</v>
       </c>
       <c r="C274" s="2">
         <v>2018</v>
@@ -73820,7 +73985,7 @@
         <v>274</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>160</v>
+        <v>348</v>
       </c>
       <c r="C275" s="2">
         <v>2018</v>
@@ -73843,7 +74008,7 @@
         <v>275</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>161</v>
+        <v>349</v>
       </c>
       <c r="C276" s="2">
         <v>2018</v>
@@ -73866,7 +74031,7 @@
         <v>276</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>163</v>
+        <v>365</v>
       </c>
       <c r="C277" s="2">
         <v>2018</v>
@@ -73889,7 +74054,7 @@
         <v>277</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>163</v>
+        <v>365</v>
       </c>
       <c r="C278" s="2">
         <v>2018</v>
@@ -73912,7 +74077,7 @@
         <v>278</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>163</v>
+        <v>365</v>
       </c>
       <c r="C279" s="2">
         <v>2018</v>
@@ -73935,7 +74100,7 @@
         <v>279</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>168</v>
+        <v>350</v>
       </c>
       <c r="C280" s="2">
         <v>2018</v>
@@ -73958,7 +74123,7 @@
         <v>280</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>168</v>
+        <v>350</v>
       </c>
       <c r="C281" s="2">
         <v>2018</v>
@@ -73981,7 +74146,7 @@
         <v>281</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>168</v>
+        <v>350</v>
       </c>
       <c r="C282" s="2">
         <v>2018</v>
@@ -74004,7 +74169,7 @@
         <v>282</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>168</v>
+        <v>350</v>
       </c>
       <c r="C283" s="2">
         <v>2018</v>
@@ -74027,7 +74192,7 @@
         <v>283</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>168</v>
+        <v>350</v>
       </c>
       <c r="C284" s="2">
         <v>2018</v>
@@ -74050,7 +74215,7 @@
         <v>284</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>42</v>
+        <v>322</v>
       </c>
       <c r="C285" s="2">
         <v>2018</v>
@@ -74073,7 +74238,7 @@
         <v>285</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>42</v>
+        <v>322</v>
       </c>
       <c r="C286" s="2">
         <v>2018</v>
@@ -74096,7 +74261,7 @@
         <v>286</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>42</v>
+        <v>322</v>
       </c>
       <c r="C287" s="2">
         <v>2018</v>
@@ -74119,7 +74284,7 @@
         <v>287</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>42</v>
+        <v>322</v>
       </c>
       <c r="C288" s="2">
         <v>2018</v>
@@ -74142,7 +74307,7 @@
         <v>288</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>42</v>
+        <v>322</v>
       </c>
       <c r="C289" s="2">
         <v>2018</v>
@@ -74165,7 +74330,7 @@
         <v>289</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>42</v>
+        <v>322</v>
       </c>
       <c r="C290" s="2">
         <v>2018</v>
@@ -74188,7 +74353,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>96</v>
+        <v>325</v>
       </c>
       <c r="C291" s="2">
         <v>2018</v>
@@ -74211,7 +74376,7 @@
         <v>291</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>96</v>
+        <v>325</v>
       </c>
       <c r="C292" s="2">
         <v>2018</v>
@@ -74234,7 +74399,7 @@
         <v>292</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>96</v>
+        <v>325</v>
       </c>
       <c r="C293" s="2">
         <v>2018</v>
@@ -74257,7 +74422,7 @@
         <v>293</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>96</v>
+        <v>325</v>
       </c>
       <c r="C294" s="2">
         <v>2018</v>
@@ -74280,7 +74445,7 @@
         <v>294</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>57</v>
+        <v>336</v>
       </c>
       <c r="C295" s="2">
         <v>2018</v>
@@ -74303,7 +74468,7 @@
         <v>295</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>57</v>
+        <v>336</v>
       </c>
       <c r="C296" s="2">
         <v>2018</v>
@@ -74326,7 +74491,7 @@
         <v>296</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>67</v>
+        <v>359</v>
       </c>
       <c r="C297" s="2">
         <v>2018</v>
@@ -74349,7 +74514,7 @@
         <v>297</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>111</v>
+        <v>335</v>
       </c>
       <c r="C298" s="2">
         <v>2018</v>
@@ -74372,7 +74537,7 @@
         <v>298</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>236</v>
+        <v>364</v>
       </c>
       <c r="C299" s="2">
         <v>2019</v>
@@ -74395,7 +74560,7 @@
         <v>299</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>236</v>
+        <v>364</v>
       </c>
       <c r="C300" s="2">
         <v>2019</v>
@@ -74418,7 +74583,7 @@
         <v>300</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>168</v>
+        <v>350</v>
       </c>
       <c r="C301" s="2">
         <v>2019</v>
@@ -74441,7 +74606,7 @@
         <v>301</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>96</v>
+        <v>325</v>
       </c>
       <c r="C302" s="2">
         <v>2019</v>
@@ -74464,7 +74629,7 @@
         <v>302</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>75</v>
+        <v>343</v>
       </c>
       <c r="C303" s="2">
         <v>2019</v>
@@ -74487,7 +74652,7 @@
         <v>303</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>75</v>
+        <v>343</v>
       </c>
       <c r="C304" s="2">
         <v>2019</v>
@@ -74510,7 +74675,7 @@
         <v>304</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>75</v>
+        <v>343</v>
       </c>
       <c r="C305" s="2">
         <v>2019</v>
@@ -74533,7 +74698,7 @@
         <v>305</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>75</v>
+        <v>343</v>
       </c>
       <c r="C306" s="2">
         <v>2019</v>
@@ -74556,7 +74721,7 @@
         <v>306</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>75</v>
+        <v>343</v>
       </c>
       <c r="C307" s="2">
         <v>2019</v>
@@ -74579,7 +74744,7 @@
         <v>307</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>75</v>
+        <v>343</v>
       </c>
       <c r="C308" s="2">
         <v>2019</v>
@@ -74602,7 +74767,7 @@
         <v>308</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>125</v>
+        <v>337</v>
       </c>
       <c r="C309" s="2">
         <v>2019</v>
@@ -74625,7 +74790,7 @@
         <v>309</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>125</v>
+        <v>337</v>
       </c>
       <c r="C310" s="2">
         <v>2019</v>
@@ -74648,7 +74813,7 @@
         <v>310</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>125</v>
+        <v>337</v>
       </c>
       <c r="C311" s="2">
         <v>2019</v>
@@ -74671,7 +74836,7 @@
         <v>311</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>125</v>
+        <v>337</v>
       </c>
       <c r="C312" s="2">
         <v>2019</v>
@@ -74694,7 +74859,7 @@
         <v>312</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>125</v>
+        <v>337</v>
       </c>
       <c r="C313" s="2">
         <v>2019</v>
@@ -74717,7 +74882,7 @@
         <v>313</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>114</v>
+        <v>344</v>
       </c>
       <c r="C314" s="2">
         <v>2019</v>
@@ -74740,7 +74905,7 @@
         <v>314</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>145</v>
+        <v>360</v>
       </c>
       <c r="C315" s="2">
         <v>2019</v>
@@ -74763,7 +74928,7 @@
         <v>315</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>318</v>
+        <v>368</v>
       </c>
       <c r="C316" s="2">
         <v>2021</v>
@@ -74786,7 +74951,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>274</v>
+        <v>369</v>
       </c>
       <c r="C317" s="2">
         <v>2021</v>
@@ -74809,7 +74974,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>274</v>
+        <v>369</v>
       </c>
       <c r="C318" s="2">
         <v>2021</v>
@@ -74832,7 +74997,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>274</v>
+        <v>369</v>
       </c>
       <c r="C319" s="2">
         <v>2021</v>
@@ -74855,7 +75020,7 @@
         <v>319</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>274</v>
+        <v>369</v>
       </c>
       <c r="C320" s="2">
         <v>2021</v>
@@ -74878,7 +75043,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>195</v>
+        <v>370</v>
       </c>
       <c r="C321" s="2">
         <v>2021</v>
@@ -74901,7 +75066,7 @@
         <v>321</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>195</v>
+        <v>370</v>
       </c>
       <c r="C322" s="2">
         <v>2021</v>
@@ -74924,7 +75089,7 @@
         <v>322</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>195</v>
+        <v>370</v>
       </c>
       <c r="C323" s="2">
         <v>2021</v>
@@ -74947,7 +75112,7 @@
         <v>323</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>251</v>
+        <v>357</v>
       </c>
       <c r="C324" s="2">
         <v>2021</v>
@@ -74970,7 +75135,7 @@
         <v>324</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>251</v>
+        <v>357</v>
       </c>
       <c r="C325" s="2">
         <v>2021</v>
@@ -74993,7 +75158,7 @@
         <v>325</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>251</v>
+        <v>357</v>
       </c>
       <c r="C326" s="2">
         <v>2021</v>
@@ -75016,7 +75181,7 @@
         <v>326</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>251</v>
+        <v>357</v>
       </c>
       <c r="C327" s="2">
         <v>2021</v>
@@ -75039,7 +75204,7 @@
         <v>327</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>201</v>
+        <v>371</v>
       </c>
       <c r="C328" s="2">
         <v>2021</v>
@@ -75062,7 +75227,7 @@
         <v>328</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>158</v>
+        <v>347</v>
       </c>
       <c r="C329" s="2">
         <v>2021</v>
@@ -75085,7 +75250,7 @@
         <v>329</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>158</v>
+        <v>347</v>
       </c>
       <c r="C330" s="2">
         <v>2021</v>
@@ -75108,7 +75273,7 @@
         <v>330</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>158</v>
+        <v>347</v>
       </c>
       <c r="C331" s="2">
         <v>2021</v>
@@ -75131,7 +75296,7 @@
         <v>331</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>158</v>
+        <v>347</v>
       </c>
       <c r="C332" s="2">
         <v>2021</v>
@@ -75154,7 +75319,7 @@
         <v>332</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>202</v>
+        <v>358</v>
       </c>
       <c r="C333" s="2">
         <v>2021</v>
@@ -75177,7 +75342,7 @@
         <v>333</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>202</v>
+        <v>358</v>
       </c>
       <c r="C334" s="2">
         <v>2021</v>
@@ -75200,7 +75365,7 @@
         <v>334</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>202</v>
+        <v>358</v>
       </c>
       <c r="C335" s="2">
         <v>2021</v>
@@ -75223,7 +75388,7 @@
         <v>335</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>202</v>
+        <v>358</v>
       </c>
       <c r="C336" s="2">
         <v>2021</v>
@@ -75246,7 +75411,7 @@
         <v>336</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>105</v>
+        <v>334</v>
       </c>
       <c r="C337" s="2">
         <v>2021</v>
@@ -75269,7 +75434,7 @@
         <v>337</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>53</v>
+        <v>346</v>
       </c>
       <c r="C338" s="2">
         <v>2021</v>
@@ -75292,7 +75457,7 @@
         <v>338</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>53</v>
+        <v>346</v>
       </c>
       <c r="C339" s="2">
         <v>2021</v>
@@ -75315,7 +75480,7 @@
         <v>339</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>53</v>
+        <v>346</v>
       </c>
       <c r="C340" s="2">
         <v>2021</v>
@@ -75338,7 +75503,7 @@
         <v>340</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>53</v>
+        <v>346</v>
       </c>
       <c r="C341" s="2">
         <v>2021</v>
@@ -75361,7 +75526,7 @@
         <v>341</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>69</v>
+        <v>329</v>
       </c>
       <c r="C342" s="2">
         <v>2021</v>
@@ -75384,7 +75549,7 @@
         <v>342</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>140</v>
+        <v>355</v>
       </c>
       <c r="C343" s="2">
         <v>2021</v>
@@ -75407,7 +75572,7 @@
         <v>343</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>140</v>
+        <v>355</v>
       </c>
       <c r="C344" s="2">
         <v>2021</v>
@@ -75430,7 +75595,7 @@
         <v>344</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>140</v>
+        <v>355</v>
       </c>
       <c r="C345" s="2">
         <v>2021</v>
@@ -75453,7 +75618,7 @@
         <v>345</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>140</v>
+        <v>355</v>
       </c>
       <c r="C346" s="2">
         <v>2021</v>
@@ -75476,7 +75641,7 @@
         <v>346</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>78</v>
+        <v>330</v>
       </c>
       <c r="C347" s="2">
         <v>2021</v>
@@ -75499,7 +75664,7 @@
         <v>347</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>78</v>
+        <v>330</v>
       </c>
       <c r="C348" s="2">
         <v>2021</v>
@@ -75522,7 +75687,7 @@
         <v>348</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>145</v>
+        <v>360</v>
       </c>
       <c r="C349" s="2">
         <v>2021</v>
@@ -75545,7 +75710,7 @@
         <v>349</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>145</v>
+        <v>360</v>
       </c>
       <c r="C350" s="2">
         <v>2021</v>
@@ -75568,7 +75733,7 @@
         <v>350</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>145</v>
+        <v>360</v>
       </c>
       <c r="C351" s="2">
         <v>2021</v>
@@ -75591,7 +75756,7 @@
         <v>351</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>214</v>
+        <v>331</v>
       </c>
       <c r="C352" s="2">
         <v>2021</v>
@@ -75614,7 +75779,7 @@
         <v>352</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>214</v>
+        <v>331</v>
       </c>
       <c r="C353" s="2">
         <v>2021</v>
@@ -75637,7 +75802,7 @@
         <v>353</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>200</v>
+        <v>356</v>
       </c>
       <c r="C354" s="2">
         <v>2022</v>
@@ -75660,7 +75825,7 @@
         <v>354</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>200</v>
+        <v>356</v>
       </c>
       <c r="C355" s="2">
         <v>2022</v>
@@ -75683,7 +75848,7 @@
         <v>355</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>158</v>
+        <v>347</v>
       </c>
       <c r="C356" s="2">
         <v>2022</v>
@@ -75706,7 +75871,7 @@
         <v>356</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>185</v>
+        <v>354</v>
       </c>
       <c r="C357" s="2">
         <v>2022</v>
@@ -75729,7 +75894,7 @@
         <v>357</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>185</v>
+        <v>354</v>
       </c>
       <c r="C358" s="2">
         <v>2022</v>
@@ -75752,7 +75917,7 @@
         <v>358</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>185</v>
+        <v>354</v>
       </c>
       <c r="C359" s="2">
         <v>2022</v>
@@ -75775,7 +75940,7 @@
         <v>359</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>59</v>
+        <v>372</v>
       </c>
       <c r="C360" s="2">
         <v>2022</v>
@@ -75798,7 +75963,7 @@
         <v>360</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>59</v>
+        <v>372</v>
       </c>
       <c r="C361" s="2">
         <v>2022</v>
@@ -75821,7 +75986,7 @@
         <v>361</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>59</v>
+        <v>372</v>
       </c>
       <c r="C362" s="2">
         <v>2022</v>
@@ -75844,7 +76009,7 @@
         <v>362</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>59</v>
+        <v>372</v>
       </c>
       <c r="C363" s="2">
         <v>2022</v>
@@ -75867,7 +76032,7 @@
         <v>363</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>59</v>
+        <v>372</v>
       </c>
       <c r="C364" s="2">
         <v>2022</v>
@@ -75890,7 +76055,7 @@
         <v>364</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>59</v>
+        <v>372</v>
       </c>
       <c r="C365" s="2">
         <v>2022</v>
@@ -75913,7 +76078,7 @@
         <v>365</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>59</v>
+        <v>372</v>
       </c>
       <c r="C366" s="2">
         <v>2022</v>
@@ -75936,7 +76101,7 @@
         <v>366</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>59</v>
+        <v>372</v>
       </c>
       <c r="C367" s="2">
         <v>2022</v>
@@ -75959,7 +76124,7 @@
         <v>367</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>59</v>
+        <v>372</v>
       </c>
       <c r="C368" s="2">
         <v>2022</v>
@@ -75982,7 +76147,7 @@
         <v>368</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>59</v>
+        <v>372</v>
       </c>
       <c r="C369" s="2">
         <v>2022</v>
@@ -76005,7 +76170,7 @@
         <v>369</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>78</v>
+        <v>330</v>
       </c>
       <c r="C370" s="2">
         <v>2022</v>
@@ -76028,7 +76193,7 @@
         <v>370</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>78</v>
+        <v>330</v>
       </c>
       <c r="C371" s="2">
         <v>2022</v>
@@ -76051,7 +76216,7 @@
         <v>371</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>125</v>
+        <v>337</v>
       </c>
       <c r="C372" s="2">
         <v>2022</v>
@@ -76074,7 +76239,7 @@
         <v>372</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>125</v>
+        <v>337</v>
       </c>
       <c r="C373" s="2">
         <v>2022</v>
@@ -76097,7 +76262,7 @@
         <v>373</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>125</v>
+        <v>337</v>
       </c>
       <c r="C374" s="2">
         <v>2022</v>
@@ -76120,7 +76285,7 @@
         <v>374</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>145</v>
+        <v>360</v>
       </c>
       <c r="C375" s="2">
         <v>2022</v>
@@ -76143,7 +76308,7 @@
         <v>375</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>145</v>
+        <v>360</v>
       </c>
       <c r="C376" s="2">
         <v>2022</v>
@@ -76166,7 +76331,7 @@
         <v>376</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>145</v>
+        <v>360</v>
       </c>
       <c r="C377" s="2">
         <v>2022</v>
@@ -76189,7 +76354,7 @@
         <v>377</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>145</v>
+        <v>360</v>
       </c>
       <c r="C378" s="2">
         <v>2022</v>
@@ -76212,7 +76377,7 @@
         <v>378</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>145</v>
+        <v>360</v>
       </c>
       <c r="C379" s="2">
         <v>2022</v>
@@ -76235,7 +76400,7 @@
         <v>379</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>179</v>
+        <v>353</v>
       </c>
       <c r="C380" s="2">
         <v>2022</v>
@@ -76258,7 +76423,7 @@
         <v>380</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>84</v>
+        <v>373</v>
       </c>
       <c r="C381" s="2">
         <v>2022</v>
@@ -76281,7 +76446,7 @@
         <v>381</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>84</v>
+        <v>373</v>
       </c>
       <c r="C382" s="2">
         <v>2022</v>
@@ -76304,7 +76469,7 @@
         <v>382</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>163</v>
+        <v>365</v>
       </c>
       <c r="C383" s="2">
         <v>2023</v>
@@ -76327,7 +76492,7 @@
         <v>383</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>163</v>
+        <v>365</v>
       </c>
       <c r="C384" s="2">
         <v>2023</v>
@@ -76350,7 +76515,7 @@
         <v>384</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>163</v>
+        <v>365</v>
       </c>
       <c r="C385" s="2">
         <v>2023</v>
@@ -76373,7 +76538,7 @@
         <v>385</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>163</v>
+        <v>365</v>
       </c>
       <c r="C386" s="2">
         <v>2023</v>
@@ -76396,7 +76561,7 @@
         <v>386</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>96</v>
+        <v>325</v>
       </c>
       <c r="C387" s="2">
         <v>2023</v>
@@ -76419,7 +76584,7 @@
         <v>387</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>98</v>
+        <v>366</v>
       </c>
       <c r="C388" s="2">
         <v>2023</v>
@@ -76442,7 +76607,7 @@
         <v>388</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>98</v>
+        <v>366</v>
       </c>
       <c r="C389" s="2">
         <v>2023</v>
@@ -76465,7 +76630,7 @@
         <v>389</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>117</v>
+        <v>340</v>
       </c>
       <c r="C390" s="2">
         <v>2023</v>
@@ -76488,7 +76653,7 @@
         <v>390</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>117</v>
+        <v>340</v>
       </c>
       <c r="C391" s="2">
         <v>2023</v>
@@ -76511,7 +76676,7 @@
         <v>391</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>78</v>
+        <v>330</v>
       </c>
       <c r="C392" s="2">
         <v>2023</v>
@@ -76534,7 +76699,7 @@
         <v>392</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>125</v>
+        <v>337</v>
       </c>
       <c r="C393" s="2">
         <v>2023</v>
@@ -76557,7 +76722,7 @@
         <v>393</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>42</v>
+        <v>322</v>
       </c>
       <c r="C394" s="2">
         <v>2001</v>
@@ -76580,7 +76745,7 @@
         <v>394</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>42</v>
+        <v>322</v>
       </c>
       <c r="C395" s="2">
         <v>2001</v>
@@ -76603,7 +76768,7 @@
         <v>395</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>46</v>
+        <v>323</v>
       </c>
       <c r="C396" s="2">
         <v>2001</v>
@@ -76626,7 +76791,7 @@
         <v>396</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>48</v>
+        <v>324</v>
       </c>
       <c r="C397" s="2">
         <v>2001</v>
@@ -76649,7 +76814,7 @@
         <v>397</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>50</v>
+        <v>326</v>
       </c>
       <c r="C398" s="2">
         <v>2001</v>
@@ -76672,7 +76837,7 @@
         <v>398</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>53</v>
+        <v>346</v>
       </c>
       <c r="C399" s="2">
         <v>2001</v>
@@ -76695,7 +76860,7 @@
         <v>399</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>55</v>
+        <v>327</v>
       </c>
       <c r="C400" s="2">
         <v>2001</v>
@@ -76718,7 +76883,7 @@
         <v>400</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>57</v>
+        <v>336</v>
       </c>
       <c r="C401" s="2">
         <v>2001</v>
@@ -76741,7 +76906,7 @@
         <v>401</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>59</v>
+        <v>372</v>
       </c>
       <c r="C402" s="2">
         <v>2001</v>
@@ -76764,7 +76929,7 @@
         <v>402</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>59</v>
+        <v>372</v>
       </c>
       <c r="C403" s="2">
         <v>2001</v>
@@ -76787,7 +76952,7 @@
         <v>403</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>59</v>
+        <v>372</v>
       </c>
       <c r="C404" s="2">
         <v>2001</v>
@@ -76810,7 +76975,7 @@
         <v>404</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>63</v>
+        <v>328</v>
       </c>
       <c r="C405" s="2">
         <v>2001</v>
@@ -76833,7 +76998,7 @@
         <v>405</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>63</v>
+        <v>328</v>
       </c>
       <c r="C406" s="2">
         <v>2001</v>
@@ -76856,7 +77021,7 @@
         <v>406</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>63</v>
+        <v>328</v>
       </c>
       <c r="C407" s="2">
         <v>2001</v>
@@ -76879,7 +77044,7 @@
         <v>407</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>67</v>
+        <v>359</v>
       </c>
       <c r="C408" s="2">
         <v>2001</v>
@@ -76902,7 +77067,7 @@
         <v>408</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>69</v>
+        <v>329</v>
       </c>
       <c r="C409" s="2">
         <v>2001</v>
@@ -76925,7 +77090,7 @@
         <v>409</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>69</v>
+        <v>329</v>
       </c>
       <c r="C410" s="2">
         <v>2001</v>
@@ -76948,7 +77113,7 @@
         <v>410</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>72</v>
+        <v>361</v>
       </c>
       <c r="C411" s="2">
         <v>2001</v>
@@ -76971,7 +77136,7 @@
         <v>411</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>72</v>
+        <v>361</v>
       </c>
       <c r="C412" s="2">
         <v>2001</v>
@@ -76994,7 +77159,7 @@
         <v>412</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>75</v>
+        <v>343</v>
       </c>
       <c r="C413" s="2">
         <v>2001</v>
@@ -77017,7 +77182,7 @@
         <v>413</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>75</v>
+        <v>343</v>
       </c>
       <c r="C414" s="2">
         <v>2001</v>
@@ -77040,7 +77205,7 @@
         <v>414</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>78</v>
+        <v>330</v>
       </c>
       <c r="C415" s="2">
         <v>2001</v>
@@ -77063,7 +77228,7 @@
         <v>415</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>78</v>
+        <v>330</v>
       </c>
       <c r="C416" s="2">
         <v>2001</v>
@@ -77086,7 +77251,7 @@
         <v>416</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>81</v>
+        <v>374</v>
       </c>
       <c r="C417" s="2">
         <v>2001</v>
@@ -77109,7 +77274,7 @@
         <v>417</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>81</v>
+        <v>374</v>
       </c>
       <c r="C418" s="2">
         <v>2001</v>
@@ -77132,7 +77297,7 @@
         <v>418</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>84</v>
+        <v>373</v>
       </c>
       <c r="C419" s="2">
         <v>2001</v>
@@ -77155,7 +77320,7 @@
         <v>419</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>86</v>
+        <v>375</v>
       </c>
       <c r="C420" s="2">
         <v>2001</v>
@@ -77178,7 +77343,7 @@
         <v>420</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>88</v>
+        <v>342</v>
       </c>
       <c r="C421" s="2">
         <v>2004</v>
@@ -77201,7 +77366,7 @@
         <v>421</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>88</v>
+        <v>342</v>
       </c>
       <c r="C422" s="2">
         <v>2004</v>
@@ -77224,7 +77389,7 @@
         <v>422</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>88</v>
+        <v>342</v>
       </c>
       <c r="C423" s="2">
         <v>2004</v>
@@ -77247,7 +77412,7 @@
         <v>423</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>88</v>
+        <v>342</v>
       </c>
       <c r="C424" s="2">
         <v>2004</v>
@@ -77270,7 +77435,7 @@
         <v>424</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>88</v>
+        <v>342</v>
       </c>
       <c r="C425" s="2">
         <v>2004</v>
@@ -77293,7 +77458,7 @@
         <v>425</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>46</v>
+        <v>323</v>
       </c>
       <c r="C426" s="2">
         <v>2004</v>
@@ -77316,7 +77481,7 @@
         <v>426</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>46</v>
+        <v>323</v>
       </c>
       <c r="C427" s="2">
         <v>2004</v>
@@ -77339,7 +77504,7 @@
         <v>427</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>46</v>
+        <v>323</v>
       </c>
       <c r="C428" s="2">
         <v>2004</v>
@@ -77362,7 +77527,7 @@
         <v>428</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>96</v>
+        <v>325</v>
       </c>
       <c r="C429" s="2">
         <v>2004</v>
@@ -77385,7 +77550,7 @@
         <v>429</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>98</v>
+        <v>366</v>
       </c>
       <c r="C430" s="2">
         <v>2004</v>
@@ -77408,7 +77573,7 @@
         <v>430</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>100</v>
+        <v>333</v>
       </c>
       <c r="C431" s="2">
         <v>2004</v>
@@ -77431,7 +77596,7 @@
         <v>431</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>100</v>
+        <v>333</v>
       </c>
       <c r="C432" s="2">
         <v>2004</v>
@@ -77454,7 +77619,7 @@
         <v>432</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>100</v>
+        <v>333</v>
       </c>
       <c r="C433" s="2">
         <v>2004</v>
@@ -77477,7 +77642,7 @@
         <v>433</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>100</v>
+        <v>333</v>
       </c>
       <c r="C434" s="2">
         <v>2004</v>
@@ -77500,7 +77665,7 @@
         <v>434</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>105</v>
+        <v>334</v>
       </c>
       <c r="C435" s="2">
         <v>2004</v>
@@ -77523,7 +77688,7 @@
         <v>435</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>105</v>
+        <v>334</v>
       </c>
       <c r="C436" s="2">
         <v>2004</v>
@@ -77546,7 +77711,7 @@
         <v>436</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>108</v>
+        <v>376</v>
       </c>
       <c r="C437" s="2">
         <v>2004</v>
@@ -77569,7 +77734,7 @@
         <v>437</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>78</v>
+        <v>330</v>
       </c>
       <c r="C438" s="2">
         <v>2004</v>
@@ -77592,7 +77757,7 @@
         <v>438</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>78</v>
+        <v>330</v>
       </c>
       <c r="C439" s="2">
         <v>2004</v>
@@ -77615,7 +77780,7 @@
         <v>439</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>111</v>
+        <v>335</v>
       </c>
       <c r="C440" s="2">
         <v>2004</v>
@@ -77638,7 +77803,7 @@
         <v>440</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>111</v>
+        <v>335</v>
       </c>
       <c r="C441" s="2">
         <v>2004</v>
@@ -77661,7 +77826,7 @@
         <v>441</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>114</v>
+        <v>344</v>
       </c>
       <c r="C442" s="2">
         <v>2004</v>
@@ -77684,7 +77849,7 @@
         <v>442</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>100</v>
+        <v>333</v>
       </c>
       <c r="C443" s="2">
         <v>2004</v>
@@ -77707,7 +77872,7 @@
         <v>443</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>100</v>
+        <v>333</v>
       </c>
       <c r="C444" s="2">
         <v>2004</v>
@@ -77730,7 +77895,7 @@
         <v>444</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>100</v>
+        <v>333</v>
       </c>
       <c r="C445" s="2">
         <v>2004</v>
@@ -77753,7 +77918,7 @@
         <v>445</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>117</v>
+        <v>340</v>
       </c>
       <c r="C446" s="2">
         <v>2004</v>
@@ -77776,7 +77941,7 @@
         <v>446</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>63</v>
+        <v>328</v>
       </c>
       <c r="C447" s="2">
         <v>2004</v>
@@ -77799,7 +77964,7 @@
         <v>447</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>63</v>
+        <v>328</v>
       </c>
       <c r="C448" s="2">
         <v>2004</v>
@@ -77822,7 +77987,7 @@
         <v>448</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>63</v>
+        <v>328</v>
       </c>
       <c r="C449" s="2">
         <v>2004</v>
@@ -77845,7 +78010,7 @@
         <v>449</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>63</v>
+        <v>328</v>
       </c>
       <c r="C450" s="2">
         <v>2004</v>
@@ -77868,7 +78033,7 @@
         <v>450</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>123</v>
+        <v>352</v>
       </c>
       <c r="C451" s="2">
         <v>2004</v>
@@ -77891,7 +78056,7 @@
         <v>451</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>125</v>
+        <v>337</v>
       </c>
       <c r="C452" s="2">
         <v>2004</v>
@@ -77914,7 +78079,7 @@
         <v>452</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>127</v>
+        <v>341</v>
       </c>
       <c r="C453" s="2">
         <v>2007</v>
@@ -77937,7 +78102,7 @@
         <v>453</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>88</v>
+        <v>342</v>
       </c>
       <c r="C454" s="2">
         <v>2007</v>
@@ -77960,7 +78125,7 @@
         <v>454</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>46</v>
+        <v>323</v>
       </c>
       <c r="C455" s="2">
         <v>2007</v>
@@ -77983,7 +78148,7 @@
         <v>455</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>46</v>
+        <v>323</v>
       </c>
       <c r="C456" s="2">
         <v>2007</v>
@@ -78006,7 +78171,7 @@
         <v>456</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>48</v>
+        <v>324</v>
       </c>
       <c r="C457" s="2">
         <v>2007</v>
@@ -78029,7 +78194,7 @@
         <v>457</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>48</v>
+        <v>324</v>
       </c>
       <c r="C458" s="2">
         <v>2007</v>
@@ -78052,7 +78217,7 @@
         <v>458</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>48</v>
+        <v>324</v>
       </c>
       <c r="C459" s="2">
         <v>2007</v>
@@ -78075,7 +78240,7 @@
         <v>459</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>98</v>
+        <v>366</v>
       </c>
       <c r="C460" s="2">
         <v>2007</v>
@@ -78098,7 +78263,7 @@
         <v>460</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>50</v>
+        <v>326</v>
       </c>
       <c r="C461" s="2">
         <v>2007</v>
@@ -78121,7 +78286,7 @@
         <v>461</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>50</v>
+        <v>326</v>
       </c>
       <c r="C462" s="2">
         <v>2007</v>
@@ -78144,7 +78309,7 @@
         <v>462</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>50</v>
+        <v>326</v>
       </c>
       <c r="C463" s="2">
         <v>2007</v>
@@ -78167,7 +78332,7 @@
         <v>463</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>100</v>
+        <v>333</v>
       </c>
       <c r="C464" s="2">
         <v>2007</v>
@@ -78190,7 +78355,7 @@
         <v>464</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>69</v>
+        <v>329</v>
       </c>
       <c r="C465" s="2">
         <v>2007</v>
@@ -78213,7 +78378,7 @@
         <v>465</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>75</v>
+        <v>343</v>
       </c>
       <c r="C466" s="2">
         <v>2007</v>
@@ -78236,7 +78401,7 @@
         <v>466</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>140</v>
+        <v>355</v>
       </c>
       <c r="C467" s="2">
         <v>2007</v>
@@ -78259,7 +78424,7 @@
         <v>467</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>140</v>
+        <v>355</v>
       </c>
       <c r="C468" s="2">
         <v>2007</v>
@@ -78282,7 +78447,7 @@
         <v>468</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>142</v>
+        <v>362</v>
       </c>
       <c r="C469" s="2">
         <v>2007</v>
@@ -78305,7 +78470,7 @@
         <v>469</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>142</v>
+        <v>362</v>
       </c>
       <c r="C470" s="2">
         <v>2007</v>
@@ -78328,7 +78493,7 @@
         <v>470</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>142</v>
+        <v>362</v>
       </c>
       <c r="C471" s="2">
         <v>2007</v>
@@ -78351,7 +78516,7 @@
         <v>471</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>145</v>
+        <v>360</v>
       </c>
       <c r="C472" s="2">
         <v>2007</v>
@@ -78374,7 +78539,7 @@
         <v>472</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>145</v>
+        <v>360</v>
       </c>
       <c r="C473" s="2">
         <v>2007</v>
@@ -78397,7 +78562,7 @@
         <v>473</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>148</v>
+        <v>377</v>
       </c>
       <c r="C474" s="2">
         <v>2007</v>
@@ -78420,7 +78585,7 @@
         <v>474</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>55</v>
+        <v>327</v>
       </c>
       <c r="C475" s="2">
         <v>2007</v>
@@ -78443,7 +78608,7 @@
         <v>475</v>
       </c>
       <c r="B476" s="3" t="s">
-        <v>55</v>
+        <v>327</v>
       </c>
       <c r="C476" s="2">
         <v>2007</v>
@@ -78466,7 +78631,7 @@
         <v>476</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>55</v>
+        <v>327</v>
       </c>
       <c r="C477" s="2">
         <v>2007</v>
@@ -78489,7 +78654,7 @@
         <v>477</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>55</v>
+        <v>327</v>
       </c>
       <c r="C478" s="2">
         <v>2007</v>
@@ -78512,7 +78677,7 @@
         <v>478</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>55</v>
+        <v>327</v>
       </c>
       <c r="C479" s="2">
         <v>2007</v>
@@ -78535,7 +78700,7 @@
         <v>479</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>55</v>
+        <v>327</v>
       </c>
       <c r="C480" s="2">
         <v>2007</v>
@@ -78558,7 +78723,7 @@
         <v>480</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>72</v>
+        <v>361</v>
       </c>
       <c r="C481" s="2">
         <v>2007</v>
@@ -78581,7 +78746,7 @@
         <v>481</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>78</v>
+        <v>330</v>
       </c>
       <c r="C482" s="2">
         <v>2007</v>
@@ -78604,7 +78769,7 @@
         <v>482</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>114</v>
+        <v>344</v>
       </c>
       <c r="C483" s="2">
         <v>2007</v>
@@ -78627,7 +78792,7 @@
         <v>483</v>
       </c>
       <c r="B484" s="3" t="s">
-        <v>158</v>
+        <v>347</v>
       </c>
       <c r="C484" s="2">
         <v>2010</v>
@@ -78650,7 +78815,7 @@
         <v>484</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>160</v>
+        <v>348</v>
       </c>
       <c r="C485" s="2">
         <v>2010</v>
@@ -78673,7 +78838,7 @@
         <v>485</v>
       </c>
       <c r="B486" s="3" t="s">
-        <v>161</v>
+        <v>349</v>
       </c>
       <c r="C486" s="2">
         <v>2010</v>
@@ -78696,7 +78861,7 @@
         <v>486</v>
       </c>
       <c r="B487" s="3" t="s">
-        <v>163</v>
+        <v>365</v>
       </c>
       <c r="C487" s="2">
         <v>2010</v>
@@ -78719,7 +78884,7 @@
         <v>487</v>
       </c>
       <c r="B488" s="3" t="s">
-        <v>163</v>
+        <v>365</v>
       </c>
       <c r="C488" s="2">
         <v>2010</v>
@@ -78742,7 +78907,7 @@
         <v>488</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>166</v>
+        <v>351</v>
       </c>
       <c r="C489" s="2">
         <v>2010</v>
@@ -78765,7 +78930,7 @@
         <v>489</v>
       </c>
       <c r="B490" s="3" t="s">
-        <v>168</v>
+        <v>350</v>
       </c>
       <c r="C490" s="2">
         <v>2010</v>
@@ -78788,7 +78953,7 @@
         <v>490</v>
       </c>
       <c r="B491" s="3" t="s">
-        <v>168</v>
+        <v>350</v>
       </c>
       <c r="C491" s="2">
         <v>2010</v>
@@ -78811,7 +78976,7 @@
         <v>491</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>55</v>
+        <v>327</v>
       </c>
       <c r="C492" s="2">
         <v>2010</v>
@@ -78834,7 +78999,7 @@
         <v>492</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>55</v>
+        <v>327</v>
       </c>
       <c r="C493" s="2">
         <v>2010</v>
@@ -78857,7 +79022,7 @@
         <v>493</v>
       </c>
       <c r="B494" s="3" t="s">
-        <v>161</v>
+        <v>349</v>
       </c>
       <c r="C494" s="2">
         <v>2010</v>
@@ -78880,7 +79045,7 @@
         <v>494</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>161</v>
+        <v>349</v>
       </c>
       <c r="C495" s="2">
         <v>2010</v>
@@ -78903,7 +79068,7 @@
         <v>495</v>
       </c>
       <c r="B496" s="3" t="s">
-        <v>166</v>
+        <v>351</v>
       </c>
       <c r="C496" s="2">
         <v>2010</v>
@@ -78926,7 +79091,7 @@
         <v>496</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>168</v>
+        <v>350</v>
       </c>
       <c r="C497" s="2">
         <v>2010</v>
@@ -78949,7 +79114,7 @@
         <v>497</v>
       </c>
       <c r="B498" s="3" t="s">
-        <v>168</v>
+        <v>350</v>
       </c>
       <c r="C498" s="2">
         <v>2010</v>
@@ -78972,7 +79137,7 @@
         <v>498</v>
       </c>
       <c r="B499" s="3" t="s">
-        <v>168</v>
+        <v>350</v>
       </c>
       <c r="C499" s="2">
         <v>2010</v>
@@ -78995,7 +79160,7 @@
         <v>499</v>
       </c>
       <c r="B500" s="3" t="s">
-        <v>46</v>
+        <v>323</v>
       </c>
       <c r="C500" s="2">
         <v>2010</v>
@@ -79018,7 +79183,7 @@
         <v>500</v>
       </c>
       <c r="B501" s="3" t="s">
-        <v>63</v>
+        <v>328</v>
       </c>
       <c r="C501" s="2">
         <v>2010</v>
@@ -79041,7 +79206,7 @@
         <v>501</v>
       </c>
       <c r="B502" s="3" t="s">
-        <v>63</v>
+        <v>328</v>
       </c>
       <c r="C502" s="2">
         <v>2010</v>
@@ -79064,7 +79229,7 @@
         <v>502</v>
       </c>
       <c r="B503" s="3" t="s">
-        <v>67</v>
+        <v>359</v>
       </c>
       <c r="C503" s="2">
         <v>2010</v>
@@ -79087,7 +79252,7 @@
         <v>503</v>
       </c>
       <c r="B504" s="3" t="s">
-        <v>179</v>
+        <v>353</v>
       </c>
       <c r="C504" s="2">
         <v>2010</v>
@@ -79110,7 +79275,7 @@
         <v>504</v>
       </c>
       <c r="B505" s="3" t="s">
-        <v>160</v>
+        <v>348</v>
       </c>
       <c r="C505" s="2">
         <v>2012</v>
@@ -79133,7 +79298,7 @@
         <v>505</v>
       </c>
       <c r="B506" s="3" t="s">
-        <v>160</v>
+        <v>348</v>
       </c>
       <c r="C506" s="2">
         <v>2012</v>
@@ -79156,7 +79321,7 @@
         <v>506</v>
       </c>
       <c r="B507" s="3" t="s">
-        <v>160</v>
+        <v>348</v>
       </c>
       <c r="C507" s="2">
         <v>2012</v>
@@ -79179,7 +79344,7 @@
         <v>507</v>
       </c>
       <c r="B508" s="3" t="s">
-        <v>160</v>
+        <v>348</v>
       </c>
       <c r="C508" s="2">
         <v>2012</v>
@@ -79202,7 +79367,7 @@
         <v>508</v>
       </c>
       <c r="B509" s="3" t="s">
-        <v>160</v>
+        <v>348</v>
       </c>
       <c r="C509" s="2">
         <v>2012</v>
@@ -79225,7 +79390,7 @@
         <v>509</v>
       </c>
       <c r="B510" s="3" t="s">
-        <v>185</v>
+        <v>354</v>
       </c>
       <c r="C510" s="2">
         <v>2012</v>
@@ -79248,7 +79413,7 @@
         <v>510</v>
       </c>
       <c r="B511" s="3" t="s">
-        <v>185</v>
+        <v>354</v>
       </c>
       <c r="C511" s="2">
         <v>2012</v>
@@ -79271,7 +79436,7 @@
         <v>511</v>
       </c>
       <c r="B512" s="3" t="s">
-        <v>185</v>
+        <v>354</v>
       </c>
       <c r="C512" s="2">
         <v>2012</v>
@@ -79294,7 +79459,7 @@
         <v>512</v>
       </c>
       <c r="B513" s="3" t="s">
-        <v>166</v>
+        <v>351</v>
       </c>
       <c r="C513" s="2">
         <v>2012</v>
@@ -79317,7 +79482,7 @@
         <v>513</v>
       </c>
       <c r="B514" s="3" t="s">
-        <v>168</v>
+        <v>350</v>
       </c>
       <c r="C514" s="2">
         <v>2012</v>
@@ -79340,7 +79505,7 @@
         <v>514</v>
       </c>
       <c r="B515" s="3" t="s">
-        <v>168</v>
+        <v>350</v>
       </c>
       <c r="C515" s="2">
         <v>2012</v>
@@ -79363,7 +79528,7 @@
         <v>515</v>
       </c>
       <c r="B516" s="3" t="s">
-        <v>168</v>
+        <v>350</v>
       </c>
       <c r="C516" s="2">
         <v>2012</v>
@@ -79386,7 +79551,7 @@
         <v>516</v>
       </c>
       <c r="B517" s="3" t="s">
-        <v>46</v>
+        <v>323</v>
       </c>
       <c r="C517" s="2">
         <v>2012</v>
@@ -79409,7 +79574,7 @@
         <v>517</v>
       </c>
       <c r="B518" s="3" t="s">
-        <v>96</v>
+        <v>325</v>
       </c>
       <c r="C518" s="2">
         <v>2012</v>
@@ -79432,7 +79597,7 @@
         <v>518</v>
       </c>
       <c r="B519" s="3" t="s">
-        <v>96</v>
+        <v>325</v>
       </c>
       <c r="C519" s="2">
         <v>2012</v>
@@ -79455,7 +79620,7 @@
         <v>519</v>
       </c>
       <c r="B520" s="3" t="s">
-        <v>96</v>
+        <v>325</v>
       </c>
       <c r="C520" s="2">
         <v>2012</v>
@@ -79478,7 +79643,7 @@
         <v>520</v>
       </c>
       <c r="B521" s="3" t="s">
-        <v>50</v>
+        <v>326</v>
       </c>
       <c r="C521" s="2">
         <v>2012</v>
@@ -79501,7 +79666,7 @@
         <v>521</v>
       </c>
       <c r="B522" s="3" t="s">
-        <v>50</v>
+        <v>326</v>
       </c>
       <c r="C522" s="2">
         <v>2012</v>
@@ -79524,7 +79689,7 @@
         <v>522</v>
       </c>
       <c r="B523" s="3" t="s">
-        <v>50</v>
+        <v>326</v>
       </c>
       <c r="C523" s="2">
         <v>2012</v>
@@ -79547,7 +79712,7 @@
         <v>523</v>
       </c>
       <c r="B524" s="3" t="s">
-        <v>63</v>
+        <v>328</v>
       </c>
       <c r="C524" s="2">
         <v>2012</v>
@@ -79570,7 +79735,7 @@
         <v>524</v>
       </c>
       <c r="B525" s="3" t="s">
-        <v>63</v>
+        <v>328</v>
       </c>
       <c r="C525" s="2">
         <v>2012</v>
@@ -79593,7 +79758,7 @@
         <v>525</v>
       </c>
       <c r="B526" s="3" t="s">
-        <v>69</v>
+        <v>329</v>
       </c>
       <c r="C526" s="2">
         <v>2012</v>
@@ -79616,7 +79781,7 @@
         <v>526</v>
       </c>
       <c r="B527" s="3" t="s">
-        <v>69</v>
+        <v>329</v>
       </c>
       <c r="C527" s="2">
         <v>2012</v>
@@ -79639,7 +79804,7 @@
         <v>527</v>
       </c>
       <c r="B528" s="3" t="s">
-        <v>69</v>
+        <v>329</v>
       </c>
       <c r="C528" s="2">
         <v>2012</v>
@@ -79662,7 +79827,7 @@
         <v>528</v>
       </c>
       <c r="B529" s="3" t="s">
-        <v>195</v>
+        <v>370</v>
       </c>
       <c r="C529" s="2">
         <v>2013</v>
@@ -79685,7 +79850,7 @@
         <v>529</v>
       </c>
       <c r="B530" s="3" t="s">
-        <v>195</v>
+        <v>370</v>
       </c>
       <c r="C530" s="2">
         <v>2013</v>
@@ -79708,7 +79873,7 @@
         <v>530</v>
       </c>
       <c r="B531" s="3" t="s">
-        <v>195</v>
+        <v>370</v>
       </c>
       <c r="C531" s="2">
         <v>2013</v>
@@ -79731,7 +79896,7 @@
         <v>531</v>
       </c>
       <c r="B532" s="3" t="s">
-        <v>195</v>
+        <v>370</v>
       </c>
       <c r="C532" s="2">
         <v>2013</v>
@@ -79754,7 +79919,7 @@
         <v>532</v>
       </c>
       <c r="B533" s="3" t="s">
-        <v>200</v>
+        <v>356</v>
       </c>
       <c r="C533" s="2">
         <v>2013</v>
@@ -79777,7 +79942,7 @@
         <v>533</v>
       </c>
       <c r="B534" s="3" t="s">
-        <v>201</v>
+        <v>371</v>
       </c>
       <c r="C534" s="2">
         <v>2013</v>
@@ -79800,7 +79965,7 @@
         <v>534</v>
       </c>
       <c r="B535" s="3" t="s">
-        <v>202</v>
+        <v>358</v>
       </c>
       <c r="C535" s="2">
         <v>2013</v>
@@ -79823,7 +79988,7 @@
         <v>535</v>
       </c>
       <c r="B536" s="3" t="s">
-        <v>202</v>
+        <v>358</v>
       </c>
       <c r="C536" s="2">
         <v>2013</v>
@@ -79846,7 +80011,7 @@
         <v>536</v>
       </c>
       <c r="B537" s="3" t="s">
-        <v>202</v>
+        <v>358</v>
       </c>
       <c r="C537" s="2">
         <v>2013</v>
@@ -79869,7 +80034,7 @@
         <v>537</v>
       </c>
       <c r="B538" s="3" t="s">
-        <v>160</v>
+        <v>348</v>
       </c>
       <c r="C538" s="2">
         <v>2013</v>
@@ -79892,7 +80057,7 @@
         <v>538</v>
       </c>
       <c r="B539" s="3" t="s">
-        <v>160</v>
+        <v>348</v>
       </c>
       <c r="C539" s="2">
         <v>2013</v>
@@ -79915,7 +80080,7 @@
         <v>539</v>
       </c>
       <c r="B540" s="3" t="s">
-        <v>160</v>
+        <v>348</v>
       </c>
       <c r="C540" s="2">
         <v>2013</v>
@@ -79938,7 +80103,7 @@
         <v>540</v>
       </c>
       <c r="B541" s="3" t="s">
-        <v>160</v>
+        <v>348</v>
       </c>
       <c r="C541" s="2">
         <v>2013</v>
@@ -79961,7 +80126,7 @@
         <v>541</v>
       </c>
       <c r="B542" s="3" t="s">
-        <v>160</v>
+        <v>348</v>
       </c>
       <c r="C542" s="2">
         <v>2013</v>
@@ -79984,7 +80149,7 @@
         <v>542</v>
       </c>
       <c r="B543" s="3" t="s">
-        <v>185</v>
+        <v>354</v>
       </c>
       <c r="C543" s="2">
         <v>2013</v>
@@ -80007,7 +80172,7 @@
         <v>543</v>
       </c>
       <c r="B544" s="3" t="s">
-        <v>163</v>
+        <v>365</v>
       </c>
       <c r="C544" s="2">
         <v>2013</v>
@@ -80030,7 +80195,7 @@
         <v>544</v>
       </c>
       <c r="B545" s="3" t="s">
-        <v>168</v>
+        <v>350</v>
       </c>
       <c r="C545" s="2">
         <v>2013</v>
@@ -80053,7 +80218,7 @@
         <v>545</v>
       </c>
       <c r="B546" s="3" t="s">
-        <v>168</v>
+        <v>350</v>
       </c>
       <c r="C546" s="2">
         <v>2013</v>
@@ -80076,7 +80241,7 @@
         <v>546</v>
       </c>
       <c r="B547" s="3" t="s">
-        <v>48</v>
+        <v>324</v>
       </c>
       <c r="C547" s="2">
         <v>2013</v>
@@ -80099,7 +80264,7 @@
         <v>547</v>
       </c>
       <c r="B548" s="3" t="s">
-        <v>55</v>
+        <v>327</v>
       </c>
       <c r="C548" s="2">
         <v>2013</v>
@@ -80122,7 +80287,7 @@
         <v>548</v>
       </c>
       <c r="B549" s="3" t="s">
-        <v>55</v>
+        <v>327</v>
       </c>
       <c r="C549" s="2">
         <v>2013</v>
@@ -80145,7 +80310,7 @@
         <v>549</v>
       </c>
       <c r="B550" s="3" t="s">
-        <v>59</v>
+        <v>372</v>
       </c>
       <c r="C550" s="2">
         <v>2013</v>
@@ -80168,7 +80333,7 @@
         <v>550</v>
       </c>
       <c r="B551" s="3" t="s">
-        <v>67</v>
+        <v>359</v>
       </c>
       <c r="C551" s="2">
         <v>2013</v>
@@ -80191,7 +80356,7 @@
         <v>551</v>
       </c>
       <c r="B552" s="3" t="s">
-        <v>75</v>
+        <v>343</v>
       </c>
       <c r="C552" s="2">
         <v>2013</v>
@@ -80214,7 +80379,7 @@
         <v>552</v>
       </c>
       <c r="B553" s="3" t="s">
-        <v>75</v>
+        <v>343</v>
       </c>
       <c r="C553" s="2">
         <v>2013</v>
@@ -80237,7 +80402,7 @@
         <v>553</v>
       </c>
       <c r="B554" s="3" t="s">
-        <v>214</v>
+        <v>331</v>
       </c>
       <c r="C554" s="2">
         <v>2013</v>
@@ -80260,7 +80425,7 @@
         <v>554</v>
       </c>
       <c r="B555" s="3" t="s">
-        <v>161</v>
+        <v>349</v>
       </c>
       <c r="C555" s="2">
         <v>2014</v>
@@ -80283,7 +80448,7 @@
         <v>555</v>
       </c>
       <c r="B556" s="3" t="s">
-        <v>161</v>
+        <v>349</v>
       </c>
       <c r="C556" s="2">
         <v>2014</v>
@@ -80306,7 +80471,7 @@
         <v>556</v>
       </c>
       <c r="B557" s="3" t="s">
-        <v>163</v>
+        <v>365</v>
       </c>
       <c r="C557" s="2">
         <v>2014</v>
@@ -80329,7 +80494,7 @@
         <v>557</v>
       </c>
       <c r="B558" s="3" t="s">
-        <v>163</v>
+        <v>365</v>
       </c>
       <c r="C558" s="2">
         <v>2014</v>
@@ -80352,7 +80517,7 @@
         <v>558</v>
       </c>
       <c r="B559" s="3" t="s">
-        <v>163</v>
+        <v>365</v>
       </c>
       <c r="C559" s="2">
         <v>2014</v>
@@ -80375,7 +80540,7 @@
         <v>559</v>
       </c>
       <c r="B560" s="3" t="s">
-        <v>163</v>
+        <v>365</v>
       </c>
       <c r="C560" s="2">
         <v>2014</v>
@@ -80398,7 +80563,7 @@
         <v>560</v>
       </c>
       <c r="B561" s="3" t="s">
-        <v>163</v>
+        <v>365</v>
       </c>
       <c r="C561" s="2">
         <v>2014</v>
@@ -80421,7 +80586,7 @@
         <v>561</v>
       </c>
       <c r="B562" s="3" t="s">
-        <v>163</v>
+        <v>365</v>
       </c>
       <c r="C562" s="2">
         <v>2014</v>
@@ -80444,7 +80609,7 @@
         <v>562</v>
       </c>
       <c r="B563" s="3" t="s">
-        <v>163</v>
+        <v>365</v>
       </c>
       <c r="C563" s="2">
         <v>2014</v>
@@ -80467,7 +80632,7 @@
         <v>563</v>
       </c>
       <c r="B564" s="3" t="s">
-        <v>163</v>
+        <v>365</v>
       </c>
       <c r="C564" s="2">
         <v>2014</v>
@@ -80490,7 +80655,7 @@
         <v>564</v>
       </c>
       <c r="B565" s="3" t="s">
-        <v>166</v>
+        <v>351</v>
       </c>
       <c r="C565" s="2">
         <v>2014</v>
@@ -80513,7 +80678,7 @@
         <v>565</v>
       </c>
       <c r="B566" s="3" t="s">
-        <v>166</v>
+        <v>351</v>
       </c>
       <c r="C566" s="2">
         <v>2014</v>
@@ -80536,7 +80701,7 @@
         <v>566</v>
       </c>
       <c r="B567" s="3" t="s">
-        <v>221</v>
+        <v>345</v>
       </c>
       <c r="C567" s="2">
         <v>2014</v>
@@ -80559,7 +80724,7 @@
         <v>567</v>
       </c>
       <c r="B568" s="3" t="s">
-        <v>166</v>
+        <v>351</v>
       </c>
       <c r="C568" s="2">
         <v>2014</v>
@@ -80582,7 +80747,7 @@
         <v>568</v>
       </c>
       <c r="B569" s="3" t="s">
-        <v>166</v>
+        <v>351</v>
       </c>
       <c r="C569" s="2">
         <v>2014</v>
@@ -80605,7 +80770,7 @@
         <v>569</v>
       </c>
       <c r="B570" s="3" t="s">
-        <v>166</v>
+        <v>351</v>
       </c>
       <c r="C570" s="2">
         <v>2014</v>
@@ -80628,7 +80793,7 @@
         <v>570</v>
       </c>
       <c r="B571" s="3" t="s">
-        <v>166</v>
+        <v>351</v>
       </c>
       <c r="C571" s="2">
         <v>2014</v>
@@ -80651,7 +80816,7 @@
         <v>571</v>
       </c>
       <c r="B572" s="3" t="s">
-        <v>166</v>
+        <v>351</v>
       </c>
       <c r="C572" s="2">
         <v>2014</v>
@@ -80674,7 +80839,7 @@
         <v>572</v>
       </c>
       <c r="B573" s="3" t="s">
-        <v>166</v>
+        <v>351</v>
       </c>
       <c r="C573" s="2">
         <v>2014</v>
@@ -80697,7 +80862,7 @@
         <v>573</v>
       </c>
       <c r="B574" s="3" t="s">
-        <v>166</v>
+        <v>351</v>
       </c>
       <c r="C574" s="2">
         <v>2014</v>
@@ -80720,7 +80885,7 @@
         <v>574</v>
       </c>
       <c r="B575" s="3" t="s">
-        <v>166</v>
+        <v>351</v>
       </c>
       <c r="C575" s="2">
         <v>2014</v>
@@ -80743,7 +80908,7 @@
         <v>575</v>
       </c>
       <c r="B576" s="3" t="s">
-        <v>168</v>
+        <v>350</v>
       </c>
       <c r="C576" s="2">
         <v>2014</v>
@@ -80766,7 +80931,7 @@
         <v>576</v>
       </c>
       <c r="B577" s="3" t="s">
-        <v>168</v>
+        <v>350</v>
       </c>
       <c r="C577" s="2">
         <v>2014</v>
@@ -80789,7 +80954,7 @@
         <v>577</v>
       </c>
       <c r="B578" s="3" t="s">
-        <v>168</v>
+        <v>350</v>
       </c>
       <c r="C578" s="2">
         <v>2014</v>
@@ -80812,7 +80977,7 @@
         <v>578</v>
       </c>
       <c r="B579" s="3" t="s">
-        <v>168</v>
+        <v>350</v>
       </c>
       <c r="C579" s="2">
         <v>2014</v>
@@ -80835,7 +81000,7 @@
         <v>579</v>
       </c>
       <c r="B580" s="3" t="s">
-        <v>168</v>
+        <v>350</v>
       </c>
       <c r="C580" s="2">
         <v>2014</v>
@@ -80858,7 +81023,7 @@
         <v>580</v>
       </c>
       <c r="B581" s="3" t="s">
-        <v>168</v>
+        <v>350</v>
       </c>
       <c r="C581" s="2">
         <v>2014</v>
@@ -80881,7 +81046,7 @@
         <v>581</v>
       </c>
       <c r="B582" s="3" t="s">
-        <v>42</v>
+        <v>322</v>
       </c>
       <c r="C582" s="2">
         <v>2014</v>
@@ -80904,7 +81069,7 @@
         <v>582</v>
       </c>
       <c r="B583" s="3" t="s">
-        <v>42</v>
+        <v>322</v>
       </c>
       <c r="C583" s="2">
         <v>2014</v>
@@ -80927,7 +81092,7 @@
         <v>583</v>
       </c>
       <c r="B584" s="3" t="s">
-        <v>42</v>
+        <v>322</v>
       </c>
       <c r="C584" s="2">
         <v>2014</v>
@@ -80950,7 +81115,7 @@
         <v>584</v>
       </c>
       <c r="B585" s="3" t="s">
-        <v>72</v>
+        <v>361</v>
       </c>
       <c r="C585" s="2">
         <v>2014</v>
@@ -80973,7 +81138,7 @@
         <v>585</v>
       </c>
       <c r="B586" s="3" t="s">
-        <v>72</v>
+        <v>361</v>
       </c>
       <c r="C586" s="2">
         <v>2014</v>
@@ -80996,7 +81161,7 @@
         <v>586</v>
       </c>
       <c r="B587" s="3" t="s">
-        <v>72</v>
+        <v>361</v>
       </c>
       <c r="C587" s="2">
         <v>2014</v>
@@ -81019,7 +81184,7 @@
         <v>587</v>
       </c>
       <c r="B588" s="3" t="s">
-        <v>72</v>
+        <v>361</v>
       </c>
       <c r="C588" s="2">
         <v>2014</v>
@@ -81042,7 +81207,7 @@
         <v>588</v>
       </c>
       <c r="B589" s="3" t="s">
-        <v>232</v>
+        <v>338</v>
       </c>
       <c r="C589" s="2">
         <v>2014</v>
@@ -81065,7 +81230,7 @@
         <v>589</v>
       </c>
       <c r="B590" s="3" t="s">
-        <v>232</v>
+        <v>338</v>
       </c>
       <c r="C590" s="2">
         <v>2014</v>
@@ -81088,7 +81253,7 @@
         <v>590</v>
       </c>
       <c r="B591" s="3" t="s">
-        <v>179</v>
+        <v>353</v>
       </c>
       <c r="C591" s="2">
         <v>2014</v>
@@ -81111,7 +81276,7 @@
         <v>591</v>
       </c>
       <c r="B592" s="3" t="s">
-        <v>234</v>
+        <v>363</v>
       </c>
       <c r="C592" s="2">
         <v>2014</v>
@@ -81134,7 +81299,7 @@
         <v>592</v>
       </c>
       <c r="B593" s="3" t="s">
-        <v>236</v>
+        <v>364</v>
       </c>
       <c r="C593" s="2">
         <v>2015</v>
@@ -81157,7 +81322,7 @@
         <v>593</v>
       </c>
       <c r="B594" s="3" t="s">
-        <v>185</v>
+        <v>354</v>
       </c>
       <c r="C594" s="2">
         <v>2015</v>
@@ -81180,7 +81345,7 @@
         <v>594</v>
       </c>
       <c r="B595" s="3" t="s">
-        <v>185</v>
+        <v>354</v>
       </c>
       <c r="C595" s="2">
         <v>2015</v>
@@ -81203,7 +81368,7 @@
         <v>595</v>
       </c>
       <c r="B596" s="3" t="s">
-        <v>185</v>
+        <v>354</v>
       </c>
       <c r="C596" s="2">
         <v>2015</v>
@@ -81226,7 +81391,7 @@
         <v>596</v>
       </c>
       <c r="B597" s="3" t="s">
-        <v>185</v>
+        <v>354</v>
       </c>
       <c r="C597" s="2">
         <v>2015</v>
@@ -81249,7 +81414,7 @@
         <v>597</v>
       </c>
       <c r="B598" s="3" t="s">
-        <v>185</v>
+        <v>354</v>
       </c>
       <c r="C598" s="2">
         <v>2015</v>
@@ -81272,7 +81437,7 @@
         <v>598</v>
       </c>
       <c r="B599" s="3" t="s">
-        <v>163</v>
+        <v>365</v>
       </c>
       <c r="C599" s="2">
         <v>2015</v>
@@ -81295,7 +81460,7 @@
         <v>599</v>
       </c>
       <c r="B600" s="3" t="s">
-        <v>163</v>
+        <v>365</v>
       </c>
       <c r="C600" s="2">
         <v>2015</v>
@@ -81318,7 +81483,7 @@
         <v>600</v>
       </c>
       <c r="B601" s="3" t="s">
-        <v>42</v>
+        <v>322</v>
       </c>
       <c r="C601" s="2">
         <v>2015</v>
@@ -81341,7 +81506,7 @@
         <v>601</v>
       </c>
       <c r="B602" s="3" t="s">
-        <v>163</v>
+        <v>365</v>
       </c>
       <c r="C602" s="2">
         <v>2015</v>
@@ -81364,7 +81529,7 @@
         <v>602</v>
       </c>
       <c r="B603" s="3" t="s">
-        <v>163</v>
+        <v>365</v>
       </c>
       <c r="C603" s="2">
         <v>2015</v>
@@ -81387,7 +81552,7 @@
         <v>603</v>
       </c>
       <c r="B604" s="3" t="s">
-        <v>163</v>
+        <v>365</v>
       </c>
       <c r="C604" s="2">
         <v>2015</v>
@@ -81410,7 +81575,7 @@
         <v>604</v>
       </c>
       <c r="B605" s="3" t="s">
-        <v>163</v>
+        <v>365</v>
       </c>
       <c r="C605" s="2">
         <v>2015</v>
@@ -81433,7 +81598,7 @@
         <v>605</v>
       </c>
       <c r="B606" s="3" t="s">
-        <v>46</v>
+        <v>323</v>
       </c>
       <c r="C606" s="2">
         <v>2015</v>
@@ -81456,7 +81621,7 @@
         <v>606</v>
       </c>
       <c r="B607" s="3" t="s">
-        <v>98</v>
+        <v>366</v>
       </c>
       <c r="C607" s="2">
         <v>2015</v>
@@ -81479,7 +81644,7 @@
         <v>607</v>
       </c>
       <c r="B608" s="3" t="s">
-        <v>98</v>
+        <v>366</v>
       </c>
       <c r="C608" s="2">
         <v>2015</v>
@@ -81502,7 +81667,7 @@
         <v>608</v>
       </c>
       <c r="B609" s="3" t="s">
-        <v>98</v>
+        <v>366</v>
       </c>
       <c r="C609" s="2">
         <v>2015</v>
@@ -81525,7 +81690,7 @@
         <v>609</v>
       </c>
       <c r="B610" s="3" t="s">
-        <v>98</v>
+        <v>366</v>
       </c>
       <c r="C610" s="2">
         <v>2015</v>
@@ -81548,7 +81713,7 @@
         <v>610</v>
       </c>
       <c r="B611" s="3" t="s">
-        <v>98</v>
+        <v>366</v>
       </c>
       <c r="C611" s="2">
         <v>2015</v>
@@ -81571,7 +81736,7 @@
         <v>611</v>
       </c>
       <c r="B612" s="3" t="s">
-        <v>98</v>
+        <v>366</v>
       </c>
       <c r="C612" s="2">
         <v>2015</v>
@@ -81594,7 +81759,7 @@
         <v>612</v>
       </c>
       <c r="B613" s="3" t="s">
-        <v>98</v>
+        <v>366</v>
       </c>
       <c r="C613" s="2">
         <v>2015</v>
@@ -81617,7 +81782,7 @@
         <v>613</v>
       </c>
       <c r="B614" s="3" t="s">
-        <v>105</v>
+        <v>334</v>
       </c>
       <c r="C614" s="2">
         <v>2015</v>
@@ -81640,7 +81805,7 @@
         <v>614</v>
       </c>
       <c r="B615" s="3" t="s">
-        <v>105</v>
+        <v>334</v>
       </c>
       <c r="C615" s="2">
         <v>2015</v>
@@ -81663,7 +81828,7 @@
         <v>615</v>
       </c>
       <c r="B616" s="3" t="s">
-        <v>105</v>
+        <v>334</v>
       </c>
       <c r="C616" s="2">
         <v>2015</v>
@@ -81686,7 +81851,7 @@
         <v>616</v>
       </c>
       <c r="B617" s="3" t="s">
-        <v>69</v>
+        <v>329</v>
       </c>
       <c r="C617" s="2">
         <v>2015</v>
@@ -81709,7 +81874,7 @@
         <v>617</v>
       </c>
       <c r="B618" s="3" t="s">
-        <v>140</v>
+        <v>355</v>
       </c>
       <c r="C618" s="2">
         <v>2015</v>
@@ -81732,7 +81897,7 @@
         <v>618</v>
       </c>
       <c r="B619" s="3" t="s">
-        <v>140</v>
+        <v>355</v>
       </c>
       <c r="C619" s="2">
         <v>2015</v>
@@ -81755,7 +81920,7 @@
         <v>619</v>
       </c>
       <c r="B620" s="3" t="s">
-        <v>111</v>
+        <v>335</v>
       </c>
       <c r="C620" s="2">
         <v>2015</v>
@@ -81778,7 +81943,7 @@
         <v>620</v>
       </c>
       <c r="B621" s="3" t="s">
-        <v>111</v>
+        <v>335</v>
       </c>
       <c r="C621" s="2">
         <v>2015</v>
@@ -81801,7 +81966,7 @@
         <v>621</v>
       </c>
       <c r="B622" s="3" t="s">
-        <v>111</v>
+        <v>335</v>
       </c>
       <c r="C622" s="2">
         <v>2015</v>
@@ -81824,7 +81989,7 @@
         <v>622</v>
       </c>
       <c r="B623" s="3" t="s">
-        <v>111</v>
+        <v>335</v>
       </c>
       <c r="C623" s="2">
         <v>2015</v>
@@ -81847,7 +82012,7 @@
         <v>623</v>
       </c>
       <c r="B624" s="3" t="s">
-        <v>111</v>
+        <v>335</v>
       </c>
       <c r="C624" s="2">
         <v>2015</v>
@@ -81870,7 +82035,7 @@
         <v>624</v>
       </c>
       <c r="B625" s="3" t="s">
-        <v>125</v>
+        <v>337</v>
       </c>
       <c r="C625" s="2">
         <v>2015</v>
@@ -81893,7 +82058,7 @@
         <v>625</v>
       </c>
       <c r="B626" s="3" t="s">
-        <v>114</v>
+        <v>344</v>
       </c>
       <c r="C626" s="2">
         <v>2015</v>
@@ -81916,7 +82081,7 @@
         <v>626</v>
       </c>
       <c r="B627" s="3" t="s">
-        <v>114</v>
+        <v>344</v>
       </c>
       <c r="C627" s="2">
         <v>2015</v>
@@ -81939,7 +82104,7 @@
         <v>627</v>
       </c>
       <c r="B628" s="3" t="s">
-        <v>114</v>
+        <v>344</v>
       </c>
       <c r="C628" s="2">
         <v>2015</v>
@@ -81962,7 +82127,7 @@
         <v>628</v>
       </c>
       <c r="B629" s="3" t="s">
-        <v>114</v>
+        <v>344</v>
       </c>
       <c r="C629" s="2">
         <v>2015</v>
@@ -81985,7 +82150,7 @@
         <v>629</v>
       </c>
       <c r="B630" s="3" t="s">
-        <v>105</v>
+        <v>334</v>
       </c>
       <c r="C630" s="2">
         <v>2015</v>
@@ -82008,7 +82173,7 @@
         <v>630</v>
       </c>
       <c r="B631" s="3" t="s">
-        <v>105</v>
+        <v>334</v>
       </c>
       <c r="C631" s="2">
         <v>2015</v>
@@ -82031,7 +82196,7 @@
         <v>631</v>
       </c>
       <c r="B632" s="3" t="s">
-        <v>251</v>
+        <v>357</v>
       </c>
       <c r="C632" s="2">
         <v>2017</v>
@@ -82054,7 +82219,7 @@
         <v>632</v>
       </c>
       <c r="B633" s="3" t="s">
-        <v>251</v>
+        <v>357</v>
       </c>
       <c r="C633" s="2">
         <v>2017</v>
@@ -82077,7 +82242,7 @@
         <v>633</v>
       </c>
       <c r="B634" s="3" t="s">
-        <v>251</v>
+        <v>357</v>
       </c>
       <c r="C634" s="2">
         <v>2017</v>
@@ -82100,7 +82265,7 @@
         <v>634</v>
       </c>
       <c r="B635" s="3" t="s">
-        <v>251</v>
+        <v>357</v>
       </c>
       <c r="C635" s="2">
         <v>2017</v>
@@ -82123,7 +82288,7 @@
         <v>635</v>
       </c>
       <c r="B636" s="3" t="s">
-        <v>251</v>
+        <v>357</v>
       </c>
       <c r="C636" s="2">
         <v>2017</v>
@@ -82146,7 +82311,7 @@
         <v>636</v>
       </c>
       <c r="B637" s="3" t="s">
-        <v>251</v>
+        <v>357</v>
       </c>
       <c r="C637" s="2">
         <v>2017</v>
@@ -82169,7 +82334,7 @@
         <v>637</v>
       </c>
       <c r="B638" s="3" t="s">
-        <v>253</v>
+        <v>367</v>
       </c>
       <c r="C638" s="2">
         <v>2017</v>
@@ -82192,7 +82357,7 @@
         <v>638</v>
       </c>
       <c r="B639" s="3" t="s">
-        <v>253</v>
+        <v>367</v>
       </c>
       <c r="C639" s="2">
         <v>2017</v>
@@ -82215,7 +82380,7 @@
         <v>639</v>
       </c>
       <c r="B640" s="3" t="s">
-        <v>253</v>
+        <v>367</v>
       </c>
       <c r="C640" s="2">
         <v>2017</v>
@@ -82238,7 +82403,7 @@
         <v>640</v>
       </c>
       <c r="B641" s="3" t="s">
-        <v>253</v>
+        <v>367</v>
       </c>
       <c r="C641" s="2">
         <v>2017</v>
@@ -82261,7 +82426,7 @@
         <v>641</v>
       </c>
       <c r="B642" s="3" t="s">
-        <v>253</v>
+        <v>367</v>
       </c>
       <c r="C642" s="2">
         <v>2017</v>
@@ -82284,7 +82449,7 @@
         <v>642</v>
       </c>
       <c r="B643" s="3" t="s">
-        <v>253</v>
+        <v>367</v>
       </c>
       <c r="C643" s="2">
         <v>2017</v>
@@ -82307,7 +82472,7 @@
         <v>643</v>
       </c>
       <c r="B644" s="3" t="s">
-        <v>127</v>
+        <v>341</v>
       </c>
       <c r="C644" s="2">
         <v>2017</v>
@@ -82330,7 +82495,7 @@
         <v>644</v>
       </c>
       <c r="B645" s="3" t="s">
-        <v>255</v>
+        <v>378</v>
       </c>
       <c r="C645" s="2">
         <v>2017</v>
@@ -82353,7 +82518,7 @@
         <v>645</v>
       </c>
       <c r="B646" s="3" t="s">
-        <v>166</v>
+        <v>351</v>
       </c>
       <c r="C646" s="2">
         <v>2017</v>
@@ -82376,7 +82541,7 @@
         <v>646</v>
       </c>
       <c r="B647" s="3" t="s">
-        <v>166</v>
+        <v>351</v>
       </c>
       <c r="C647" s="2">
         <v>2017</v>
@@ -82399,7 +82564,7 @@
         <v>647</v>
       </c>
       <c r="B648" s="3" t="s">
-        <v>168</v>
+        <v>350</v>
       </c>
       <c r="C648" s="2">
         <v>2017</v>
@@ -82422,7 +82587,7 @@
         <v>648</v>
       </c>
       <c r="B649" s="3" t="s">
-        <v>168</v>
+        <v>350</v>
       </c>
       <c r="C649" s="2">
         <v>2017</v>
@@ -82445,7 +82610,7 @@
         <v>649</v>
       </c>
       <c r="B650" s="3" t="s">
-        <v>50</v>
+        <v>326</v>
       </c>
       <c r="C650" s="2">
         <v>2017</v>
@@ -82468,7 +82633,7 @@
         <v>650</v>
       </c>
       <c r="B651" s="3" t="s">
-        <v>50</v>
+        <v>326</v>
       </c>
       <c r="C651" s="2">
         <v>2017</v>
@@ -82491,7 +82656,7 @@
         <v>651</v>
       </c>
       <c r="B652" s="3" t="s">
-        <v>50</v>
+        <v>326</v>
       </c>
       <c r="C652" s="2">
         <v>2017</v>
@@ -82514,7 +82679,7 @@
         <v>652</v>
       </c>
       <c r="B653" s="3" t="s">
-        <v>50</v>
+        <v>326</v>
       </c>
       <c r="C653" s="2">
         <v>2017</v>
@@ -82537,7 +82702,7 @@
         <v>653</v>
       </c>
       <c r="B654" s="3" t="s">
-        <v>50</v>
+        <v>326</v>
       </c>
       <c r="C654" s="2">
         <v>2017</v>
@@ -82560,7 +82725,7 @@
         <v>654</v>
       </c>
       <c r="B655" s="3" t="s">
-        <v>50</v>
+        <v>326</v>
       </c>
       <c r="C655" s="2">
         <v>2017</v>
@@ -82583,7 +82748,7 @@
         <v>655</v>
       </c>
       <c r="B656" s="3" t="s">
-        <v>100</v>
+        <v>333</v>
       </c>
       <c r="C656" s="2">
         <v>2017</v>
@@ -82606,7 +82771,7 @@
         <v>656</v>
       </c>
       <c r="B657" s="3" t="s">
-        <v>75</v>
+        <v>343</v>
       </c>
       <c r="C657" s="2">
         <v>2017</v>
@@ -82629,7 +82794,7 @@
         <v>657</v>
       </c>
       <c r="B658" s="3" t="s">
-        <v>75</v>
+        <v>343</v>
       </c>
       <c r="C658" s="2">
         <v>2017</v>
@@ -82652,7 +82817,7 @@
         <v>658</v>
       </c>
       <c r="B659" s="3" t="s">
-        <v>75</v>
+        <v>343</v>
       </c>
       <c r="C659" s="2">
         <v>2017</v>
@@ -82675,7 +82840,7 @@
         <v>659</v>
       </c>
       <c r="B660" s="3" t="s">
-        <v>75</v>
+        <v>343</v>
       </c>
       <c r="C660" s="2">
         <v>2017</v>
@@ -82698,7 +82863,7 @@
         <v>660</v>
       </c>
       <c r="B661" s="3" t="s">
-        <v>75</v>
+        <v>343</v>
       </c>
       <c r="C661" s="2">
         <v>2017</v>
@@ -82721,7 +82886,7 @@
         <v>661</v>
       </c>
       <c r="B662" s="3" t="s">
-        <v>123</v>
+        <v>352</v>
       </c>
       <c r="C662" s="2">
         <v>2017</v>
@@ -82744,7 +82909,7 @@
         <v>662</v>
       </c>
       <c r="B663" s="3" t="s">
-        <v>125</v>
+        <v>337</v>
       </c>
       <c r="C663" s="2">
         <v>2017</v>
@@ -82767,7 +82932,7 @@
         <v>663</v>
       </c>
       <c r="B664" s="3" t="s">
-        <v>179</v>
+        <v>353</v>
       </c>
       <c r="C664" s="2">
         <v>2017</v>
@@ -82790,7 +82955,7 @@
         <v>664</v>
       </c>
       <c r="B665" s="3" t="s">
-        <v>179</v>
+        <v>353</v>
       </c>
       <c r="C665" s="2">
         <v>2017</v>
@@ -82813,7 +82978,7 @@
         <v>665</v>
       </c>
       <c r="B666" s="3" t="s">
-        <v>179</v>
+        <v>353</v>
       </c>
       <c r="C666" s="2">
         <v>2017</v>
@@ -82836,7 +83001,7 @@
         <v>666</v>
       </c>
       <c r="B667" s="3" t="s">
-        <v>236</v>
+        <v>364</v>
       </c>
       <c r="C667">
         <v>2018</v>
@@ -82859,7 +83024,7 @@
         <v>667</v>
       </c>
       <c r="B668" s="3" t="s">
-        <v>236</v>
+        <v>364</v>
       </c>
       <c r="C668" s="2">
         <v>2018</v>
@@ -82882,7 +83047,7 @@
         <v>668</v>
       </c>
       <c r="B669" s="3" t="s">
-        <v>236</v>
+        <v>364</v>
       </c>
       <c r="C669" s="2">
         <v>2018</v>
@@ -82905,7 +83070,7 @@
         <v>669</v>
       </c>
       <c r="B670" s="3" t="s">
-        <v>236</v>
+        <v>364</v>
       </c>
       <c r="C670" s="2">
         <v>2018</v>
@@ -82928,7 +83093,7 @@
         <v>670</v>
       </c>
       <c r="B671" s="3" t="s">
-        <v>161</v>
+        <v>349</v>
       </c>
       <c r="C671" s="2">
         <v>2018</v>
@@ -82951,7 +83116,7 @@
         <v>671</v>
       </c>
       <c r="B672" s="3" t="s">
-        <v>161</v>
+        <v>349</v>
       </c>
       <c r="C672" s="2">
         <v>2018</v>
@@ -82974,7 +83139,7 @@
         <v>672</v>
       </c>
       <c r="B673" s="3" t="s">
-        <v>163</v>
+        <v>365</v>
       </c>
       <c r="C673" s="2">
         <v>2018</v>
@@ -82997,7 +83162,7 @@
         <v>673</v>
       </c>
       <c r="B674" s="3" t="s">
-        <v>163</v>
+        <v>365</v>
       </c>
       <c r="C674" s="2">
         <v>2018</v>
@@ -83020,7 +83185,7 @@
         <v>674</v>
       </c>
       <c r="B675" s="3" t="s">
-        <v>163</v>
+        <v>365</v>
       </c>
       <c r="C675" s="2">
         <v>2018</v>
@@ -83043,7 +83208,7 @@
         <v>675</v>
       </c>
       <c r="B676" s="3" t="s">
-        <v>166</v>
+        <v>351</v>
       </c>
       <c r="C676" s="2">
         <v>2018</v>
@@ -83066,7 +83231,7 @@
         <v>676</v>
       </c>
       <c r="B677" s="3" t="s">
-        <v>168</v>
+        <v>350</v>
       </c>
       <c r="C677" s="2">
         <v>2018</v>
@@ -83089,7 +83254,7 @@
         <v>677</v>
       </c>
       <c r="B678" s="3" t="s">
-        <v>168</v>
+        <v>350</v>
       </c>
       <c r="C678" s="2">
         <v>2018</v>
@@ -83112,7 +83277,7 @@
         <v>678</v>
       </c>
       <c r="B679" s="3" t="s">
-        <v>42</v>
+        <v>322</v>
       </c>
       <c r="C679" s="2">
         <v>2018</v>
@@ -83135,7 +83300,7 @@
         <v>679</v>
       </c>
       <c r="B680" s="3" t="s">
-        <v>96</v>
+        <v>325</v>
       </c>
       <c r="C680" s="2">
         <v>2018</v>
@@ -83158,7 +83323,7 @@
         <v>680</v>
       </c>
       <c r="B681" s="3" t="s">
-        <v>67</v>
+        <v>359</v>
       </c>
       <c r="C681" s="2">
         <v>2018</v>
@@ -83181,7 +83346,7 @@
         <v>681</v>
       </c>
       <c r="B682" s="3" t="s">
-        <v>67</v>
+        <v>359</v>
       </c>
       <c r="C682" s="2">
         <v>2018</v>
@@ -83204,7 +83369,7 @@
         <v>682</v>
       </c>
       <c r="B683" s="3" t="s">
-        <v>67</v>
+        <v>359</v>
       </c>
       <c r="C683" s="2">
         <v>2018</v>
@@ -83227,7 +83392,7 @@
         <v>683</v>
       </c>
       <c r="B684" s="3" t="s">
-        <v>67</v>
+        <v>359</v>
       </c>
       <c r="C684" s="2">
         <v>2018</v>
@@ -83250,7 +83415,7 @@
         <v>684</v>
       </c>
       <c r="B685" s="3" t="s">
-        <v>67</v>
+        <v>359</v>
       </c>
       <c r="C685" s="2">
         <v>2018</v>
@@ -83273,7 +83438,7 @@
         <v>685</v>
       </c>
       <c r="B686" s="3" t="s">
-        <v>67</v>
+        <v>359</v>
       </c>
       <c r="C686" s="2">
         <v>2018</v>
@@ -83296,7 +83461,7 @@
         <v>686</v>
       </c>
       <c r="B687" s="3" t="s">
-        <v>232</v>
+        <v>338</v>
       </c>
       <c r="C687" s="2">
         <v>2018</v>
@@ -83319,7 +83484,7 @@
         <v>687</v>
       </c>
       <c r="B688" s="3" t="s">
-        <v>114</v>
+        <v>344</v>
       </c>
       <c r="C688" s="2">
         <v>2018</v>
@@ -83342,7 +83507,7 @@
         <v>688</v>
       </c>
       <c r="B689" s="3" t="s">
-        <v>145</v>
+        <v>360</v>
       </c>
       <c r="C689" s="2">
         <v>2018</v>
@@ -83365,7 +83530,7 @@
         <v>689</v>
       </c>
       <c r="B690" s="3" t="s">
-        <v>81</v>
+        <v>374</v>
       </c>
       <c r="C690" s="2">
         <v>2018</v>
@@ -83388,7 +83553,7 @@
         <v>690</v>
       </c>
       <c r="B691" s="3" t="s">
-        <v>81</v>
+        <v>374</v>
       </c>
       <c r="C691" s="2">
         <v>2018</v>
@@ -83411,7 +83576,7 @@
         <v>691</v>
       </c>
       <c r="B692" s="3" t="s">
-        <v>267</v>
+        <v>379</v>
       </c>
       <c r="C692" s="2">
         <v>2018</v>
@@ -83434,7 +83599,7 @@
         <v>692</v>
       </c>
       <c r="B693" s="3" t="s">
-        <v>200</v>
+        <v>356</v>
       </c>
       <c r="C693" s="2">
         <v>2019</v>
@@ -83457,7 +83622,7 @@
         <v>693</v>
       </c>
       <c r="B694" s="3" t="s">
-        <v>200</v>
+        <v>356</v>
       </c>
       <c r="C694" s="2">
         <v>2019</v>
@@ -83480,7 +83645,7 @@
         <v>694</v>
       </c>
       <c r="B695" s="3" t="s">
-        <v>201</v>
+        <v>371</v>
       </c>
       <c r="C695" s="2">
         <v>2019</v>
@@ -83503,7 +83668,7 @@
         <v>695</v>
       </c>
       <c r="B696" s="3" t="s">
-        <v>201</v>
+        <v>371</v>
       </c>
       <c r="C696" s="2">
         <v>2019</v>
@@ -83526,7 +83691,7 @@
         <v>696</v>
       </c>
       <c r="B697" s="3" t="s">
-        <v>236</v>
+        <v>364</v>
       </c>
       <c r="C697" s="2">
         <v>2019</v>
@@ -83549,7 +83714,7 @@
         <v>697</v>
       </c>
       <c r="B698" s="3" t="s">
-        <v>160</v>
+        <v>348</v>
       </c>
       <c r="C698" s="2">
         <v>2019</v>
@@ -83572,7 +83737,7 @@
         <v>698</v>
       </c>
       <c r="B699" s="3" t="s">
-        <v>160</v>
+        <v>348</v>
       </c>
       <c r="C699" s="2">
         <v>2019</v>
@@ -83595,7 +83760,7 @@
         <v>699</v>
       </c>
       <c r="B700" s="3" t="s">
-        <v>168</v>
+        <v>350</v>
       </c>
       <c r="C700" s="2">
         <v>2019</v>
@@ -83618,7 +83783,7 @@
         <v>700</v>
       </c>
       <c r="B701" s="3" t="s">
-        <v>168</v>
+        <v>350</v>
       </c>
       <c r="C701" s="2">
         <v>2019</v>
@@ -83641,7 +83806,7 @@
         <v>701</v>
       </c>
       <c r="B702" s="3" t="s">
-        <v>42</v>
+        <v>322</v>
       </c>
       <c r="C702" s="2">
         <v>2019</v>
@@ -83664,7 +83829,7 @@
         <v>702</v>
       </c>
       <c r="B703" s="3" t="s">
-        <v>42</v>
+        <v>322</v>
       </c>
       <c r="C703" s="2">
         <v>2019</v>
@@ -83687,7 +83852,7 @@
         <v>703</v>
       </c>
       <c r="B704" s="3" t="s">
-        <v>96</v>
+        <v>325</v>
       </c>
       <c r="C704" s="2">
         <v>2019</v>
@@ -83710,7 +83875,7 @@
         <v>704</v>
       </c>
       <c r="B705" s="3" t="s">
-        <v>96</v>
+        <v>325</v>
       </c>
       <c r="C705" s="2">
         <v>2019</v>
@@ -83733,7 +83898,7 @@
         <v>705</v>
       </c>
       <c r="B706" s="3" t="s">
-        <v>96</v>
+        <v>325</v>
       </c>
       <c r="C706" s="2">
         <v>2019</v>
@@ -83756,7 +83921,7 @@
         <v>706</v>
       </c>
       <c r="B707" s="3" t="s">
-        <v>75</v>
+        <v>343</v>
       </c>
       <c r="C707" s="2">
         <v>2019</v>
@@ -83779,7 +83944,7 @@
         <v>707</v>
       </c>
       <c r="B708" s="3" t="s">
-        <v>75</v>
+        <v>343</v>
       </c>
       <c r="C708" s="2">
         <v>2019</v>
@@ -83802,7 +83967,7 @@
         <v>708</v>
       </c>
       <c r="B709" s="3" t="s">
-        <v>75</v>
+        <v>343</v>
       </c>
       <c r="C709" s="2">
         <v>2019</v>
@@ -83825,7 +83990,7 @@
         <v>709</v>
       </c>
       <c r="B710" s="3" t="s">
-        <v>75</v>
+        <v>343</v>
       </c>
       <c r="C710" s="2">
         <v>2019</v>
@@ -83848,7 +84013,7 @@
         <v>710</v>
       </c>
       <c r="B711" s="3" t="s">
-        <v>140</v>
+        <v>355</v>
       </c>
       <c r="C711" s="2">
         <v>2019</v>
@@ -83871,7 +84036,7 @@
         <v>711</v>
       </c>
       <c r="B712" s="3" t="s">
-        <v>114</v>
+        <v>344</v>
       </c>
       <c r="C712" s="2">
         <v>2019</v>
@@ -83894,7 +84059,7 @@
         <v>712</v>
       </c>
       <c r="B713" s="3" t="s">
-        <v>271</v>
+        <v>380</v>
       </c>
       <c r="C713" s="2">
         <v>2019</v>
@@ -83917,7 +84082,7 @@
         <v>713</v>
       </c>
       <c r="B714" s="3" t="s">
-        <v>271</v>
+        <v>380</v>
       </c>
       <c r="C714" s="2">
         <v>2019</v>
@@ -83940,7 +84105,7 @@
         <v>714</v>
       </c>
       <c r="B715" s="3" t="s">
-        <v>274</v>
+        <v>369</v>
       </c>
       <c r="C715" s="2">
         <v>2021</v>
@@ -83963,7 +84128,7 @@
         <v>715</v>
       </c>
       <c r="B716" s="3" t="s">
-        <v>274</v>
+        <v>369</v>
       </c>
       <c r="C716" s="2">
         <v>2021</v>
@@ -83986,7 +84151,7 @@
         <v>716</v>
       </c>
       <c r="B717" s="3" t="s">
-        <v>274</v>
+        <v>369</v>
       </c>
       <c r="C717" s="2">
         <v>2021</v>
@@ -84009,7 +84174,7 @@
         <v>717</v>
       </c>
       <c r="B718" s="3" t="s">
-        <v>251</v>
+        <v>357</v>
       </c>
       <c r="C718" s="2">
         <v>2021</v>
@@ -84032,7 +84197,7 @@
         <v>718</v>
       </c>
       <c r="B719" s="3" t="s">
-        <v>251</v>
+        <v>357</v>
       </c>
       <c r="C719" s="2">
         <v>2021</v>
@@ -84055,7 +84220,7 @@
         <v>719</v>
       </c>
       <c r="B720" s="3" t="s">
-        <v>201</v>
+        <v>371</v>
       </c>
       <c r="C720" s="2">
         <v>2021</v>
@@ -84078,7 +84243,7 @@
         <v>720</v>
       </c>
       <c r="B721" s="3" t="s">
-        <v>201</v>
+        <v>371</v>
       </c>
       <c r="C721" s="2">
         <v>2021</v>
@@ -84101,7 +84266,7 @@
         <v>721</v>
       </c>
       <c r="B722" s="3" t="s">
-        <v>201</v>
+        <v>371</v>
       </c>
       <c r="C722" s="2">
         <v>2021</v>
@@ -84124,7 +84289,7 @@
         <v>722</v>
       </c>
       <c r="B723" s="3" t="s">
-        <v>158</v>
+        <v>347</v>
       </c>
       <c r="C723" s="2">
         <v>2021</v>
@@ -84147,7 +84312,7 @@
         <v>723</v>
       </c>
       <c r="B724" s="3" t="s">
-        <v>158</v>
+        <v>347</v>
       </c>
       <c r="C724" s="2">
         <v>2021</v>
@@ -84170,7 +84335,7 @@
         <v>724</v>
       </c>
       <c r="B725" s="3" t="s">
-        <v>158</v>
+        <v>347</v>
       </c>
       <c r="C725" s="2">
         <v>2021</v>
@@ -84193,7 +84358,7 @@
         <v>725</v>
       </c>
       <c r="B726" s="3" t="s">
-        <v>158</v>
+        <v>347</v>
       </c>
       <c r="C726" s="2">
         <v>2021</v>
@@ -84216,7 +84381,7 @@
         <v>726</v>
       </c>
       <c r="B727" s="3" t="s">
-        <v>158</v>
+        <v>347</v>
       </c>
       <c r="C727" s="2">
         <v>2021</v>
@@ -84239,7 +84404,7 @@
         <v>727</v>
       </c>
       <c r="B728" s="3" t="s">
-        <v>202</v>
+        <v>358</v>
       </c>
       <c r="C728" s="2">
         <v>2021</v>
@@ -84262,7 +84427,7 @@
         <v>728</v>
       </c>
       <c r="B729" s="3" t="s">
-        <v>202</v>
+        <v>358</v>
       </c>
       <c r="C729" s="2">
         <v>2021</v>
@@ -84285,7 +84450,7 @@
         <v>729</v>
       </c>
       <c r="B730" s="3" t="s">
-        <v>202</v>
+        <v>358</v>
       </c>
       <c r="C730" s="2">
         <v>2021</v>
@@ -84308,7 +84473,7 @@
         <v>730</v>
       </c>
       <c r="B731" s="3" t="s">
-        <v>202</v>
+        <v>358</v>
       </c>
       <c r="C731" s="2">
         <v>2021</v>
@@ -84331,7 +84496,7 @@
         <v>731</v>
       </c>
       <c r="B732" s="3" t="s">
-        <v>105</v>
+        <v>334</v>
       </c>
       <c r="C732" s="2">
         <v>2021</v>
@@ -84354,7 +84519,7 @@
         <v>732</v>
       </c>
       <c r="B733" s="3" t="s">
-        <v>105</v>
+        <v>334</v>
       </c>
       <c r="C733" s="2">
         <v>2021</v>
@@ -84377,7 +84542,7 @@
         <v>733</v>
       </c>
       <c r="B734" s="3" t="s">
-        <v>105</v>
+        <v>334</v>
       </c>
       <c r="C734" s="2">
         <v>2021</v>
@@ -84400,7 +84565,7 @@
         <v>734</v>
       </c>
       <c r="B735" s="3" t="s">
-        <v>53</v>
+        <v>346</v>
       </c>
       <c r="C735" s="2">
         <v>2021</v>
@@ -84423,7 +84588,7 @@
         <v>735</v>
       </c>
       <c r="B736" s="3" t="s">
-        <v>53</v>
+        <v>346</v>
       </c>
       <c r="C736" s="2">
         <v>2021</v>
@@ -84446,7 +84611,7 @@
         <v>736</v>
       </c>
       <c r="B737" s="3" t="s">
-        <v>57</v>
+        <v>336</v>
       </c>
       <c r="C737" s="2">
         <v>2021</v>
@@ -84469,7 +84634,7 @@
         <v>737</v>
       </c>
       <c r="B738" s="3" t="s">
-        <v>57</v>
+        <v>336</v>
       </c>
       <c r="C738" s="2">
         <v>2021</v>
@@ -84492,7 +84657,7 @@
         <v>738</v>
       </c>
       <c r="B739" s="3" t="s">
-        <v>69</v>
+        <v>329</v>
       </c>
       <c r="C739" s="2">
         <v>2021</v>
@@ -84515,7 +84680,7 @@
         <v>739</v>
       </c>
       <c r="B740" s="3" t="s">
-        <v>72</v>
+        <v>361</v>
       </c>
       <c r="C740" s="2">
         <v>2021</v>
@@ -84538,7 +84703,7 @@
         <v>740</v>
       </c>
       <c r="B741" s="3" t="s">
-        <v>140</v>
+        <v>355</v>
       </c>
       <c r="C741" s="2">
         <v>2021</v>
@@ -84561,7 +84726,7 @@
         <v>741</v>
       </c>
       <c r="B742" s="3" t="s">
-        <v>78</v>
+        <v>330</v>
       </c>
       <c r="C742" s="2">
         <v>2021</v>
@@ -84584,7 +84749,7 @@
         <v>742</v>
       </c>
       <c r="B743" s="3" t="s">
-        <v>232</v>
+        <v>338</v>
       </c>
       <c r="C743" s="2">
         <v>2021</v>
@@ -84607,7 +84772,7 @@
         <v>743</v>
       </c>
       <c r="B744" s="3" t="s">
-        <v>145</v>
+        <v>360</v>
       </c>
       <c r="C744" s="2">
         <v>2021</v>
@@ -84630,7 +84795,7 @@
         <v>744</v>
       </c>
       <c r="B745" s="3" t="s">
-        <v>145</v>
+        <v>360</v>
       </c>
       <c r="C745" s="2">
         <v>2021</v>
@@ -84653,7 +84818,7 @@
         <v>745</v>
       </c>
       <c r="B746" s="3" t="s">
-        <v>214</v>
+        <v>331</v>
       </c>
       <c r="C746" s="2">
         <v>2021</v>
@@ -84676,7 +84841,7 @@
         <v>746</v>
       </c>
       <c r="B747" s="3" t="s">
-        <v>214</v>
+        <v>331</v>
       </c>
       <c r="C747" s="2">
         <v>2021</v>
@@ -84699,7 +84864,7 @@
         <v>747</v>
       </c>
       <c r="B748" s="3" t="s">
-        <v>200</v>
+        <v>356</v>
       </c>
       <c r="C748" s="2">
         <v>2022</v>
@@ -84722,7 +84887,7 @@
         <v>748</v>
       </c>
       <c r="B749" s="3" t="s">
-        <v>200</v>
+        <v>356</v>
       </c>
       <c r="C749" s="2">
         <v>2022</v>
@@ -84745,7 +84910,7 @@
         <v>749</v>
       </c>
       <c r="B750" s="3" t="s">
-        <v>158</v>
+        <v>347</v>
       </c>
       <c r="C750" s="2">
         <v>2022</v>
@@ -84768,7 +84933,7 @@
         <v>750</v>
       </c>
       <c r="B751" s="3" t="s">
-        <v>158</v>
+        <v>347</v>
       </c>
       <c r="C751" s="2">
         <v>2022</v>
@@ -84791,7 +84956,7 @@
         <v>751</v>
       </c>
       <c r="B752" s="3" t="s">
-        <v>158</v>
+        <v>347</v>
       </c>
       <c r="C752" s="2">
         <v>2022</v>
@@ -84814,7 +84979,7 @@
         <v>752</v>
       </c>
       <c r="B753" s="3" t="s">
-        <v>158</v>
+        <v>347</v>
       </c>
       <c r="C753" s="2">
         <v>2022</v>
@@ -84837,7 +85002,7 @@
         <v>753</v>
       </c>
       <c r="B754" s="3" t="s">
-        <v>202</v>
+        <v>358</v>
       </c>
       <c r="C754" s="2">
         <v>2022</v>
@@ -84860,7 +85025,7 @@
         <v>754</v>
       </c>
       <c r="B755" s="3" t="s">
-        <v>202</v>
+        <v>358</v>
       </c>
       <c r="C755" s="2">
         <v>2022</v>
@@ -84883,7 +85048,7 @@
         <v>755</v>
       </c>
       <c r="B756" s="3" t="s">
-        <v>202</v>
+        <v>358</v>
       </c>
       <c r="C756" s="2">
         <v>2022</v>
@@ -84906,7 +85071,7 @@
         <v>756</v>
       </c>
       <c r="B757" s="3" t="s">
-        <v>202</v>
+        <v>358</v>
       </c>
       <c r="C757" s="2">
         <v>2022</v>
@@ -84929,7 +85094,7 @@
         <v>757</v>
       </c>
       <c r="B758" s="3" t="s">
-        <v>202</v>
+        <v>358</v>
       </c>
       <c r="C758" s="2">
         <v>2022</v>
@@ -84952,7 +85117,7 @@
         <v>758</v>
       </c>
       <c r="B759" s="3" t="s">
-        <v>202</v>
+        <v>358</v>
       </c>
       <c r="C759" s="2">
         <v>2022</v>
@@ -84975,7 +85140,7 @@
         <v>759</v>
       </c>
       <c r="B760" s="3" t="s">
-        <v>202</v>
+        <v>358</v>
       </c>
       <c r="C760" s="2">
         <v>2022</v>
@@ -84998,7 +85163,7 @@
         <v>760</v>
       </c>
       <c r="B761" s="3" t="s">
-        <v>202</v>
+        <v>358</v>
       </c>
       <c r="C761" s="2">
         <v>2022</v>
@@ -85021,7 +85186,7 @@
         <v>761</v>
       </c>
       <c r="B762" s="3" t="s">
-        <v>202</v>
+        <v>358</v>
       </c>
       <c r="C762" s="2">
         <v>2022</v>
@@ -85044,7 +85209,7 @@
         <v>762</v>
       </c>
       <c r="B763" s="3" t="s">
-        <v>59</v>
+        <v>372</v>
       </c>
       <c r="C763" s="2">
         <v>2022</v>
@@ -85067,7 +85232,7 @@
         <v>763</v>
       </c>
       <c r="B764" s="3" t="s">
-        <v>59</v>
+        <v>372</v>
       </c>
       <c r="C764" s="2">
         <v>2022</v>
@@ -85090,7 +85255,7 @@
         <v>764</v>
       </c>
       <c r="B765" s="3" t="s">
-        <v>59</v>
+        <v>372</v>
       </c>
       <c r="C765" s="2">
         <v>2022</v>
@@ -85113,7 +85278,7 @@
         <v>765</v>
       </c>
       <c r="B766" s="3" t="s">
-        <v>59</v>
+        <v>372</v>
       </c>
       <c r="C766" s="2">
         <v>2022</v>
@@ -85136,7 +85301,7 @@
         <v>766</v>
       </c>
       <c r="B767" s="3" t="s">
-        <v>140</v>
+        <v>355</v>
       </c>
       <c r="C767" s="2">
         <v>2022</v>
@@ -85159,7 +85324,7 @@
         <v>767</v>
       </c>
       <c r="B768" s="3" t="s">
-        <v>140</v>
+        <v>355</v>
       </c>
       <c r="C768" s="2">
         <v>2022</v>
@@ -85182,7 +85347,7 @@
         <v>768</v>
       </c>
       <c r="B769" s="3" t="s">
-        <v>125</v>
+        <v>337</v>
       </c>
       <c r="C769" s="2">
         <v>2022</v>
@@ -85205,7 +85370,7 @@
         <v>769</v>
       </c>
       <c r="B770" s="3" t="s">
-        <v>125</v>
+        <v>337</v>
       </c>
       <c r="C770" s="2">
         <v>2022</v>
@@ -85228,7 +85393,7 @@
         <v>770</v>
       </c>
       <c r="B771" s="3" t="s">
-        <v>125</v>
+        <v>337</v>
       </c>
       <c r="C771" s="2">
         <v>2022</v>
@@ -85251,7 +85416,7 @@
         <v>771</v>
       </c>
       <c r="B772" s="3" t="s">
-        <v>125</v>
+        <v>337</v>
       </c>
       <c r="C772" s="2">
         <v>2022</v>
@@ -85274,7 +85439,7 @@
         <v>772</v>
       </c>
       <c r="B773" s="3" t="s">
-        <v>179</v>
+        <v>353</v>
       </c>
       <c r="C773" s="2">
         <v>2022</v>
@@ -85297,7 +85462,7 @@
         <v>773</v>
       </c>
       <c r="B774" s="3" t="s">
-        <v>179</v>
+        <v>353</v>
       </c>
       <c r="C774" s="2">
         <v>2022</v>
@@ -85320,7 +85485,7 @@
         <v>774</v>
       </c>
       <c r="B775" s="3" t="s">
-        <v>179</v>
+        <v>353</v>
       </c>
       <c r="C775" s="2">
         <v>2022</v>
@@ -85343,7 +85508,7 @@
         <v>775</v>
       </c>
       <c r="B776" s="3" t="s">
-        <v>267</v>
+        <v>379</v>
       </c>
       <c r="C776" s="2">
         <v>2022</v>
@@ -85366,7 +85531,7 @@
         <v>776</v>
       </c>
       <c r="B777" s="3" t="s">
-        <v>84</v>
+        <v>373</v>
       </c>
       <c r="C777" s="2">
         <v>2022</v>
@@ -85389,7 +85554,7 @@
         <v>777</v>
       </c>
       <c r="B778" s="3" t="s">
-        <v>84</v>
+        <v>373</v>
       </c>
       <c r="C778" s="2">
         <v>2022</v>
@@ -85412,7 +85577,7 @@
         <v>778</v>
       </c>
       <c r="B779" s="3" t="s">
-        <v>255</v>
+        <v>378</v>
       </c>
       <c r="C779" s="2">
         <v>2023</v>
@@ -85435,7 +85600,7 @@
         <v>779</v>
       </c>
       <c r="B780" s="3" t="s">
-        <v>255</v>
+        <v>378</v>
       </c>
       <c r="C780" s="2">
         <v>2023</v>
@@ -85458,7 +85623,7 @@
         <v>780</v>
       </c>
       <c r="B781" s="3" t="s">
-        <v>255</v>
+        <v>378</v>
       </c>
       <c r="C781" s="2">
         <v>2023</v>
@@ -85481,7 +85646,7 @@
         <v>781</v>
       </c>
       <c r="B782" s="3" t="s">
-        <v>185</v>
+        <v>354</v>
       </c>
       <c r="C782" s="2">
         <v>2023</v>
@@ -85504,7 +85669,7 @@
         <v>782</v>
       </c>
       <c r="B783" s="3" t="s">
-        <v>185</v>
+        <v>354</v>
       </c>
       <c r="C783" s="2">
         <v>2023</v>
@@ -85527,7 +85692,7 @@
         <v>783</v>
       </c>
       <c r="B784" s="3" t="s">
-        <v>185</v>
+        <v>354</v>
       </c>
       <c r="C784" s="2">
         <v>2023</v>
@@ -85550,7 +85715,7 @@
         <v>784</v>
       </c>
       <c r="B785" s="3" t="s">
-        <v>185</v>
+        <v>354</v>
       </c>
       <c r="C785" s="2">
         <v>2023</v>
@@ -85573,7 +85738,7 @@
         <v>785</v>
       </c>
       <c r="B786" s="3" t="s">
-        <v>185</v>
+        <v>354</v>
       </c>
       <c r="C786" s="2">
         <v>2023</v>
@@ -85596,7 +85761,7 @@
         <v>786</v>
       </c>
       <c r="B787" s="3" t="s">
-        <v>185</v>
+        <v>354</v>
       </c>
       <c r="C787" s="2">
         <v>2023</v>
@@ -85619,7 +85784,7 @@
         <v>787</v>
       </c>
       <c r="B788" s="3" t="s">
-        <v>185</v>
+        <v>354</v>
       </c>
       <c r="C788" s="2">
         <v>2023</v>
@@ -85642,7 +85807,7 @@
         <v>788</v>
       </c>
       <c r="B789" s="3" t="s">
-        <v>185</v>
+        <v>354</v>
       </c>
       <c r="C789" s="2">
         <v>2023</v>
@@ -85665,7 +85830,7 @@
         <v>789</v>
       </c>
       <c r="B790" s="3" t="s">
-        <v>185</v>
+        <v>354</v>
       </c>
       <c r="C790" s="2">
         <v>2023</v>
@@ -85688,7 +85853,7 @@
         <v>790</v>
       </c>
       <c r="B791" s="3" t="s">
-        <v>163</v>
+        <v>365</v>
       </c>
       <c r="C791" s="2">
         <v>2023</v>
@@ -85711,7 +85876,7 @@
         <v>791</v>
       </c>
       <c r="B792" s="3" t="s">
-        <v>163</v>
+        <v>365</v>
       </c>
       <c r="C792" s="2">
         <v>2023</v>
@@ -85734,7 +85899,7 @@
         <v>792</v>
       </c>
       <c r="B793" s="3" t="s">
-        <v>163</v>
+        <v>365</v>
       </c>
       <c r="C793" s="2">
         <v>2023</v>
@@ -85757,7 +85922,7 @@
         <v>793</v>
       </c>
       <c r="B794" s="3" t="s">
-        <v>166</v>
+        <v>351</v>
       </c>
       <c r="C794" s="2">
         <v>2023</v>
@@ -85780,7 +85945,7 @@
         <v>794</v>
       </c>
       <c r="B795" s="3" t="s">
-        <v>166</v>
+        <v>351</v>
       </c>
       <c r="C795" s="2">
         <v>2023</v>
@@ -85803,7 +85968,7 @@
         <v>795</v>
       </c>
       <c r="B796" s="3" t="s">
-        <v>166</v>
+        <v>351</v>
       </c>
       <c r="C796" s="2">
         <v>2023</v>
@@ -85826,7 +85991,7 @@
         <v>796</v>
       </c>
       <c r="B797" s="3" t="s">
-        <v>166</v>
+        <v>351</v>
       </c>
       <c r="C797" s="2">
         <v>2023</v>
@@ -85849,7 +86014,7 @@
         <v>797</v>
       </c>
       <c r="B798" s="3" t="s">
-        <v>46</v>
+        <v>323</v>
       </c>
       <c r="C798" s="2">
         <v>2023</v>
@@ -85872,7 +86037,7 @@
         <v>798</v>
       </c>
       <c r="B799" s="3" t="s">
-        <v>46</v>
+        <v>323</v>
       </c>
       <c r="C799" s="2">
         <v>2023</v>
@@ -85895,7 +86060,7 @@
         <v>799</v>
       </c>
       <c r="B800" s="3" t="s">
-        <v>46</v>
+        <v>323</v>
       </c>
       <c r="C800" s="2">
         <v>2023</v>
@@ -85918,7 +86083,7 @@
         <v>800</v>
       </c>
       <c r="B801" s="3" t="s">
-        <v>96</v>
+        <v>325</v>
       </c>
       <c r="C801" s="2">
         <v>2023</v>
@@ -85941,7 +86106,7 @@
         <v>801</v>
       </c>
       <c r="B802" s="3" t="s">
-        <v>96</v>
+        <v>325</v>
       </c>
       <c r="C802" s="2">
         <v>2023</v>
@@ -85964,7 +86129,7 @@
         <v>802</v>
       </c>
       <c r="B803" s="3" t="s">
-        <v>96</v>
+        <v>325</v>
       </c>
       <c r="C803" s="2">
         <v>2023</v>
@@ -85987,7 +86152,7 @@
         <v>803</v>
       </c>
       <c r="B804" s="3" t="s">
-        <v>96</v>
+        <v>325</v>
       </c>
       <c r="C804" s="2">
         <v>2023</v>
@@ -86010,7 +86175,7 @@
         <v>804</v>
       </c>
       <c r="B805" s="3" t="s">
-        <v>96</v>
+        <v>325</v>
       </c>
       <c r="C805" s="2">
         <v>2023</v>
@@ -86033,7 +86198,7 @@
         <v>805</v>
       </c>
       <c r="B806" s="3" t="s">
-        <v>98</v>
+        <v>366</v>
       </c>
       <c r="C806" s="2">
         <v>2023</v>
@@ -86056,7 +86221,7 @@
         <v>806</v>
       </c>
       <c r="B807" s="3" t="s">
-        <v>98</v>
+        <v>366</v>
       </c>
       <c r="C807" s="2">
         <v>2023</v>
@@ -86079,7 +86244,7 @@
         <v>807</v>
       </c>
       <c r="B808" s="3" t="s">
-        <v>50</v>
+        <v>326</v>
       </c>
       <c r="C808" s="2">
         <v>2023</v>
@@ -86102,7 +86267,7 @@
         <v>808</v>
       </c>
       <c r="B809" s="3" t="s">
-        <v>50</v>
+        <v>326</v>
       </c>
       <c r="C809" s="2">
         <v>2023</v>
@@ -86125,7 +86290,7 @@
         <v>809</v>
       </c>
       <c r="B810" s="3" t="s">
-        <v>50</v>
+        <v>326</v>
       </c>
       <c r="C810" s="2">
         <v>2023</v>
@@ -86148,7 +86313,7 @@
         <v>810</v>
       </c>
       <c r="B811" s="3" t="s">
-        <v>100</v>
+        <v>333</v>
       </c>
       <c r="C811" s="2">
         <v>2023</v>
@@ -86171,7 +86336,7 @@
         <v>811</v>
       </c>
       <c r="B812" s="3" t="s">
-        <v>100</v>
+        <v>333</v>
       </c>
       <c r="C812" s="2">
         <v>2023</v>
@@ -86194,7 +86359,7 @@
         <v>812</v>
       </c>
       <c r="B813" s="3" t="s">
-        <v>117</v>
+        <v>340</v>
       </c>
       <c r="C813" s="2">
         <v>2023</v>
@@ -86217,7 +86382,7 @@
         <v>813</v>
       </c>
       <c r="B814" s="3" t="s">
-        <v>117</v>
+        <v>340</v>
       </c>
       <c r="C814" s="2">
         <v>2023</v>
@@ -86240,7 +86405,7 @@
         <v>814</v>
       </c>
       <c r="B815" s="3" t="s">
-        <v>117</v>
+        <v>340</v>
       </c>
       <c r="C815" s="2">
         <v>2023</v>
@@ -86263,7 +86428,7 @@
         <v>815</v>
       </c>
       <c r="B816" s="3" t="s">
-        <v>55</v>
+        <v>327</v>
       </c>
       <c r="C816" s="2">
         <v>2023</v>
@@ -86286,7 +86451,7 @@
         <v>816</v>
       </c>
       <c r="B817" s="3" t="s">
-        <v>55</v>
+        <v>327</v>
       </c>
       <c r="C817" s="2">
         <v>2023</v>
@@ -86309,7 +86474,7 @@
         <v>817</v>
       </c>
       <c r="B818" s="3" t="s">
-        <v>55</v>
+        <v>327</v>
       </c>
       <c r="C818" s="2">
         <v>2023</v>
@@ -86332,7 +86497,7 @@
         <v>818</v>
       </c>
       <c r="B819" s="3" t="s">
-        <v>59</v>
+        <v>372</v>
       </c>
       <c r="C819" s="2">
         <v>2023</v>
@@ -86355,7 +86520,7 @@
         <v>819</v>
       </c>
       <c r="B820" s="3" t="s">
-        <v>67</v>
+        <v>359</v>
       </c>
       <c r="C820" s="2">
         <v>2023</v>
@@ -86378,7 +86543,7 @@
         <v>820</v>
       </c>
       <c r="B821" s="3" t="s">
-        <v>67</v>
+        <v>359</v>
       </c>
       <c r="C821" s="2">
         <v>2023</v>
@@ -86401,7 +86566,7 @@
         <v>821</v>
       </c>
       <c r="B822" s="3" t="s">
-        <v>67</v>
+        <v>359</v>
       </c>
       <c r="C822" s="2">
         <v>2023</v>
@@ -86424,7 +86589,7 @@
         <v>822</v>
       </c>
       <c r="B823" s="3" t="s">
-        <v>67</v>
+        <v>359</v>
       </c>
       <c r="C823" s="2">
         <v>2023</v>
@@ -86447,7 +86612,7 @@
         <v>823</v>
       </c>
       <c r="B824" s="3" t="s">
-        <v>72</v>
+        <v>361</v>
       </c>
       <c r="C824" s="2">
         <v>2023</v>
@@ -86470,7 +86635,7 @@
         <v>824</v>
       </c>
       <c r="B825" s="3" t="s">
-        <v>72</v>
+        <v>361</v>
       </c>
       <c r="C825" s="2">
         <v>2023</v>
@@ -86493,7 +86658,7 @@
         <v>825</v>
       </c>
       <c r="B826" s="3" t="s">
-        <v>123</v>
+        <v>352</v>
       </c>
       <c r="C826" s="2">
         <v>2023</v>
@@ -86516,7 +86681,7 @@
         <v>826</v>
       </c>
       <c r="B827" s="3" t="s">
-        <v>123</v>
+        <v>352</v>
       </c>
       <c r="C827" s="2">
         <v>2023</v>
@@ -86539,7 +86704,7 @@
         <v>827</v>
       </c>
       <c r="B828" s="3" t="s">
-        <v>123</v>
+        <v>352</v>
       </c>
       <c r="C828" s="2">
         <v>2023</v>
@@ -86562,7 +86727,7 @@
         <v>828</v>
       </c>
       <c r="B829" s="3" t="s">
-        <v>78</v>
+        <v>330</v>
       </c>
       <c r="C829" s="2">
         <v>2023</v>
@@ -86585,7 +86750,7 @@
         <v>829</v>
       </c>
       <c r="B830" s="3" t="s">
-        <v>78</v>
+        <v>330</v>
       </c>
       <c r="C830" s="2">
         <v>2023</v>
@@ -86608,7 +86773,7 @@
         <v>830</v>
       </c>
       <c r="B831" s="3" t="s">
-        <v>125</v>
+        <v>337</v>
       </c>
       <c r="C831" s="2">
         <v>2023</v>
